--- a/data/Synthetic_individual/SupplementaryTable1_motif_reconstruction_performance.xlsx
+++ b/data/Synthetic_individual/SupplementaryTable1_motif_reconstruction_performance.xlsx
@@ -455,7 +455,7 @@
             <text:p>
               val : 
               <text:s/>
-              indicates that performance is measured on the validation dataset, i.e. data without the 10% used for training the HLA-I classifier, as shown in Figures
+              indicates that performance is measured on the validation dataset, i.e. data without the 10% used for training the HLA-I classifier, as shown in the paper figures.
             </text:p>
           </table:table-cell>
           <table:covered-table-cell table:number-columns-repeated="11"/>
@@ -1038,7 +1038,7 @@
             <text:p>
               val : 
               <text:s/>
-              indicates that performance is measured on the validation dataset, i.e. data without the 10% used for training the HLA-I classifier, as shown in Figures
+              indicates that performance is measured on the validation dataset, i.e. data without the 10% used for training the HLA-I classifier, as shown in the paper figures.
             </text:p>
           </table:table-cell>
           <table:covered-table-cell table:number-columns-repeated="11"/>
@@ -1624,7 +1624,7 @@
             <text:p>
               val : 
               <text:s/>
-              indicates that performance is measured on the validation dataset, i.e. data without the 10% used for training the HLA-I classifier, as shown in Figures
+              indicates that performance is measured on the validation dataset, i.e. data without the 10% used for training the HLA-I classifier, as shown in the paper figures.
             </text:p>
           </table:table-cell>
           <table:covered-table-cell table:number-columns-repeated="11"/>
@@ -2201,7 +2201,7 @@
             <text:p>
               val : 
               <text:s/>
-              indicates that performance is measured on the validation dataset, i.e. data without the 10% used for training the HLA-I classifier, as shown in Figures
+              indicates that performance is measured on the validation dataset, i.e. data without the 10% used for training the HLA-I classifier, as shown in the paper figures.
             </text:p>
           </table:table-cell>
           <table:covered-table-cell table:number-columns-repeated="11"/>
@@ -2787,7 +2787,7 @@
             <text:p>
               val : 
               <text:s/>
-              indicates that performance is measured on the validation dataset, i.e. data without the 10% used for training the HLA-I classifier, as shown in Figures
+              indicates that performance is measured on the validation dataset, i.e. data without the 10% used for training the HLA-I classifier, as shown in the paper figures.
             </text:p>
           </table:table-cell>
           <table:covered-table-cell table:number-columns-repeated="11"/>
@@ -3370,7 +3370,7 @@
             <text:p>
               val : 
               <text:s/>
-              indicates that performance is measured on the validation dataset, i.e. data without the 10% used for training the HLA-I classifier, as shown in Figures
+              indicates that performance is measured on the validation dataset, i.e. data without the 10% used for training the HLA-I classifier, as shown in the paper figures.
             </text:p>
           </table:table-cell>
           <table:covered-table-cell table:number-columns-repeated="11"/>
@@ -3956,7 +3956,7 @@
             <text:p>
               val : 
               <text:s/>
-              indicates that performance is measured on the validation dataset, i.e. data without the 10% used for training the HLA-I classifier, as shown in Figures
+              indicates that performance is measured on the validation dataset, i.e. data without the 10% used for training the HLA-I classifier, as shown in the paper figures.
             </text:p>
           </table:table-cell>
           <table:covered-table-cell table:number-columns-repeated="11"/>
@@ -4542,7 +4542,7 @@
             <text:p>
               val : 
               <text:s/>
-              indicates that performance is measured on the validation dataset, i.e. data without the 10% used for training the HLA-I classifier, as shown in Figures
+              indicates that performance is measured on the validation dataset, i.e. data without the 10% used for training the HLA-I classifier, as shown in the paper figures.
             </text:p>
           </table:table-cell>
           <table:covered-table-cell table:number-columns-repeated="11"/>
@@ -5130,7 +5130,7 @@
             <text:p>
               val : 
               <text:s/>
-              indicates that performance is measured on the validation dataset, i.e. data without the 10% used for training the HLA-I classifier, as shown in Figures
+              indicates that performance is measured on the validation dataset, i.e. data without the 10% used for training the HLA-I classifier, as shown in the paper figures.
             </text:p>
           </table:table-cell>
           <table:covered-table-cell table:number-columns-repeated="11"/>
@@ -5713,7 +5713,7 @@
             <text:p>
               val : 
               <text:s/>
-              indicates that performance is measured on the validation dataset, i.e. data without the 10% used for training the HLA-I classifier, as shown in Figures
+              indicates that performance is measured on the validation dataset, i.e. data without the 10% used for training the HLA-I classifier, as shown in the paper figures.
             </text:p>
           </table:table-cell>
           <table:covered-table-cell table:number-columns-repeated="11"/>
@@ -5905,9 +5905,9 @@
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
     <meta:creation-date>2020-01-29T09:19:20.903786479</meta:creation-date>
-    <dc:date>2020-04-21T15:20:17.098128042</dc:date>
-    <meta:editing-duration>PT3H43M34S</meta:editing-duration>
-    <meta:editing-cycles>182</meta:editing-cycles>
+    <dc:date>2020-04-22T19:49:55.010976237</dc:date>
+    <meta:editing-duration>PT3H45M11S</meta:editing-duration>
+    <meta:editing-cycles>184</meta:editing-cycles>
     <meta:generator>LibreOffice/6.0.7.3$Linux_X86_64 LibreOffice_project/00m0$Build-3</meta:generator>
     <meta:document-statistic meta:table-count="10" meta:cell-count="1520" meta:object-count="0"/>
   </office:meta>
@@ -5927,8 +5927,8 @@
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Haplotype 1">
-              <config:config-item config:name="CursorPositionX" config:type="int">2</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">14</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">20</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -6071,8 +6071,8 @@
               <config:config-item config:name="AnchoredTextOverflowLegacy" config:type="boolean">false</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="Haplotype 8">
-              <config:config-item config:name="CursorPositionX" config:type="int">1</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">32</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">20</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -6107,7 +6107,7 @@
               <config:config-item config:name="AnchoredTextOverflowLegacy" config:type="boolean">false</config:config-item>
             </config:config-item-map-entry>
           </config:config-item-map-named>
-          <config:config-item config:name="ActiveTable" config:type="string">Haplotype 8</config:config-item>
+          <config:config-item config:name="ActiveTable" config:type="string">Haplotype 1</config:config-item>
           <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1479</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">124</config:config-item>
@@ -6140,7 +6140,7 @@
       <config:config-item config:name="IsKernAsianPunctuation" config:type="boolean">false</config:config-item>
       <config:config-item config:name="CharacterCompressionType" config:type="short">0</config:config-item>
       <config:config-item config:name="ApplyUserData" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">uQH+/0hQLUNvbG9yLUxhc2VySmV0LU01NTIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQ1VQUzpIUC1Db2xvci1MYXNlckpldC1NNTUyAAAAAAAWAAMA2gAAAAAAAAAIAFZUAAAkbQAASm9iRGF0YSAxCnByaW50ZXI9SFAtQ29sb3ItTGFzZXJKZXQtTTU1MgpvcmllbnRhdGlvbj1Qb3J0cmFpdApjb3BpZXM9MQpjb2xsYXRlPWZhbHNlCm1hcmdpbmRhanVzdG1lbnQ9MCwwLDAsMApjb2xvcmRlcHRoPTI0CnBzbGV2ZWw9MApwZGZkZXZpY2U9MQpjb2xvcmRldmljZT0wClBQRENvbnRleERhdGEKSW5wdXRTbG90OkF1dG8ARHVwbGV4Ok5vbmUAUGFnZVNpemU6TGV0dGVyAAASAENPTVBBVF9EVVBMRVhfTU9ERQ8ARHVwbGV4TW9kZTo6T2Zm</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">uQH+/0hQLUNvbG9yLUxhc2VySmV0LU01NTIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQ1VQUzpIUC1Db2xvci1MYXNlckpldC1NNTUyAAAAAAAWAAMA2gAAAAAAAAAIAFZUAAAkbQAASm9iRGF0YSAxCnByaW50ZXI9SFAtQ29sb3ItTGFzZXJKZXQtTTU1MgpvcmllbnRhdGlvbj1Qb3J0cmFpdApjb3BpZXM9MQpjb2xsYXRlPWZhbHNlCm1hcmdpbmRhanVzdG1lbnQ9MCwwLDAsMApjb2xvcmRlcHRoPTI0CnBzbGV2ZWw9MApwZGZkZXZpY2U9MQpjb2xvcmRldmljZT0wClBQRENvbnRleERhdGEKUGFnZVNpemU6TGV0dGVyAElucHV0U2xvdDpBdXRvAER1cGxleDpOb25lAAASAENPTVBBVF9EVVBMRVhfTU9ERQ8ARHVwbGV4TW9kZTo6T2Zm</config:config-item>
       <config:config-item config:name="PrinterName" config:type="string">HP-Color-LaserJet-M552</config:config-item>
       <config:config-item-map-indexed config:name="ForbiddenCharacters">
         <config:config-item-map-entry>
@@ -6288,9 +6288,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2020-04-21">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2020-04-22">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="15:18:41.822393994">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="19:48:17.213228863">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/data/Synthetic_individual/SupplementaryTable1_motif_reconstruction_performance.xlsx
+++ b/data/Synthetic_individual/SupplementaryTable1_motif_reconstruction_performance.xlsx
@@ -109,28 +109,28 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>AUC</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
-            <text:p>0.994</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce2" office:value-type="float" office:value="0.992" calcext:value-type="float">
+            <text:p>0.992</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="float" office:value="0.988" calcext:value-type="float">
             <text:p>0.988</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.814</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.728</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.928</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.909</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.885</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell office:value-type="float" office:value="0.797" calcext:value-type="float">
+            <text:p>0.797</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.733" calcext:value-type="float">
+            <text:p>0.733</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.954" calcext:value-type="float">
+            <text:p>0.954</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.893" calcext:value-type="float">
+            <text:p>0.893</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.878" calcext:value-type="float">
+            <text:p>0.878</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.652" calcext:value-type="float">
             <text:p>0.652</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
@@ -139,89 +139,89 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Accuracy</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce2" office:value-type="float" office:value="0.955" calcext:value-type="float">
+            <text:p>0.955</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="float" office:value="0.949" calcext:value-type="float">
+            <text:p>0.949</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.674" calcext:value-type="float">
+            <text:p>0.674</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.633" calcext:value-type="float">
+            <text:p>0.633</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.917" calcext:value-type="float">
+            <text:p>0.917</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.912" calcext:value-type="float">
+            <text:p>0.912</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.887" calcext:value-type="float">
+            <text:p>0.887</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.575" calcext:value-type="float">
+            <text:p>0.575</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Precision</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="float" office:value="0.979" calcext:value-type="float">
+            <text:p>0.979</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="float" office:value="0.975" calcext:value-type="float">
+            <text:p>0.975</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.802" calcext:value-type="float">
+            <text:p>0.802</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.714" calcext:value-type="float">
+            <text:p>0.714</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.812" calcext:value-type="float">
+            <text:p>0.812</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.957" calcext:value-type="float">
             <text:p>0.957</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
-            <text:p>0.949</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.680</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.636</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell office:value-type="float" office:value="0.917" calcext:value-type="float">
             <text:p>0.917</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.930</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell office:value-type="float" office:value="0.341" calcext:value-type="float">
+            <text:p>0.341</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Sensitivity</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="float" office:value="0.916" calcext:value-type="float">
             <text:p>0.916</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.660</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Precision</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
-            <text:p>0.975</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
-            <text:p>0.962</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.801</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.562</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.805</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.957</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.808</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.283</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Sensitivity</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
-            <text:p>0.916</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
-            <text:p>0.888</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.502</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.399</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.779</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.848</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.769</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.292</text:p>
+          <table:table-cell table:style-name="ce2" office:value-type="float" office:value="0.9" calcext:value-type="float">
+            <text:p>0.9</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.477" calcext:value-type="float">
+            <text:p>0.477</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.402" calcext:value-type="float">
+            <text:p>0.402</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.796" calcext:value-type="float">
+            <text:p>0.796</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.822" calcext:value-type="float">
+            <text:p>0.822</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.771" calcext:value-type="float">
+            <text:p>0.771</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.286" calcext:value-type="float">
+            <text:p>0.286</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -229,29 +229,29 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Specificity</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce2" office:value-type="float" office:value="0.983" calcext:value-type="float">
             <text:p>0.983</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
-            <text:p>0.978</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.900</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.880</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.956</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.970</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce2" office:value-type="float" office:value="0.98" calcext:value-type="float">
+            <text:p>0.98</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.895" calcext:value-type="float">
+            <text:p>0.895</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.88" calcext:value-type="float">
+            <text:p>0.88</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.959" calcext:value-type="float">
+            <text:p>0.959</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.964" calcext:value-type="float">
+            <text:p>0.964</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.954" calcext:value-type="float">
             <text:p>0.954</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.858</text:p>
+          <table:table-cell office:value-type="float" office:value="0.857" calcext:value-type="float">
+            <text:p>0.857</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -301,29 +301,29 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>AUC</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.988</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.976</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.843</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.702</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.913</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.907</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.875</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.631</text:p>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.979" calcext:value-type="float">
+            <text:p>0.979</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.969" calcext:value-type="float">
+            <text:p>0.969</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.796" calcext:value-type="float">
+            <text:p>0.796</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.715" calcext:value-type="float">
+            <text:p>0.715</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.946" calcext:value-type="float">
+            <text:p>0.946</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.883" calcext:value-type="float">
+            <text:p>0.883</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.859" calcext:value-type="float">
+            <text:p>0.859</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.634" calcext:value-type="float">
+            <text:p>0.634</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -331,29 +331,29 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Accuracy</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.948</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.938</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.723</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.678</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.922</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.935</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.903</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.659</text:p>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.943" calcext:value-type="float">
+            <text:p>0.943</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.934" calcext:value-type="float">
+            <text:p>0.934</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.685" calcext:value-type="float">
+            <text:p>0.685</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.642" calcext:value-type="float">
+            <text:p>0.642</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.915" calcext:value-type="float">
+            <text:p>0.915</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.914" calcext:value-type="float">
+            <text:p>0.914</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.882" calcext:value-type="float">
+            <text:p>0.882</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.592" calcext:value-type="float">
+            <text:p>0.592</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -361,29 +361,29 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Precision</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.965" calcext:value-type="float">
+            <text:p>0.965</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.953" calcext:value-type="float">
+            <text:p>0.953</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.788" calcext:value-type="float">
+            <text:p>0.788</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.69" calcext:value-type="float">
+            <text:p>0.69</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.808" calcext:value-type="float">
+            <text:p>0.808</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.954" calcext:value-type="float">
             <text:p>0.954</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.918</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.843</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.636</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.800</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.955</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.797</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.279</text:p>
+          <table:table-cell office:value-type="float" office:value="0.796" calcext:value-type="float">
+            <text:p>0.796</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.384" calcext:value-type="float">
+            <text:p>0.384</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -391,29 +391,29 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Sensitivity</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.919</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.887</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.562</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.397</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.774</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.845</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.737</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.267</text:p>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.895" calcext:value-type="float">
+            <text:p>0.895</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.871" calcext:value-type="float">
+            <text:p>0.871</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.48" calcext:value-type="float">
+            <text:p>0.48</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.386" calcext:value-type="float">
+            <text:p>0.386</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.78" calcext:value-type="float">
+            <text:p>0.78</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.805" calcext:value-type="float">
+            <text:p>0.805</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.724" calcext:value-type="float">
+            <text:p>0.724</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.254" calcext:value-type="float">
+            <text:p>0.254</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -421,29 +421,29 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Specificity</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.984</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.977</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.912</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.879</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.954</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.969</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.947</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.853</text:p>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.979" calcext:value-type="float">
+            <text:p>0.979</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.974" calcext:value-type="float">
+            <text:p>0.974</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.896" calcext:value-type="float">
+            <text:p>0.896</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.877" calcext:value-type="float">
+            <text:p>0.877</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.952" calcext:value-type="float">
+            <text:p>0.952</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.961" calcext:value-type="float">
+            <text:p>0.961</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.945" calcext:value-type="float">
+            <text:p>0.945</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.851" calcext:value-type="float">
+            <text:p>0.851</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -468,8 +468,8 @@
             <text:p>Peptides of length 9:</text:p>
           </table:table-cell>
           <table:covered-table-cell/>
-          <table:table-cell table:formula="of:=SUM([.B25:.B30])" office:value-type="float" office:value="5864" calcext:value-type="float">
-            <text:p>5864</text:p>
+          <table:table-cell table:formula="of:=SUM([.B25:.B30])" office:value-type="float" office:value="7839" calcext:value-type="float">
+            <text:p>7839</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -480,8 +480,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*01:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1743" calcext:value-type="float">
-            <text:p>1743</text:p>
+          <table:table-cell office:value-type="float" office:value="1786" calcext:value-type="float">
+            <text:p>1786</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -492,8 +492,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*03:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1364" calcext:value-type="float">
-            <text:p>1364</text:p>
+          <table:table-cell office:value-type="float" office:value="1498" calcext:value-type="float">
+            <text:p>1498</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -504,8 +504,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*07:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1515" calcext:value-type="float">
-            <text:p>1515</text:p>
+          <table:table-cell office:value-type="float" office:value="2148" calcext:value-type="float">
+            <text:p>2148</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -516,8 +516,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*08:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="505" calcext:value-type="float">
-            <text:p>505</text:p>
+          <table:table-cell office:value-type="float" office:value="905" calcext:value-type="float">
+            <text:p>905</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -528,8 +528,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*07:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="229" calcext:value-type="float">
-            <text:p>229</text:p>
+          <table:table-cell office:value-type="float" office:value="558" calcext:value-type="float">
+            <text:p>558</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -540,8 +540,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*07:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="508" calcext:value-type="float">
-            <text:p>508</text:p>
+          <table:table-cell office:value-type="float" office:value="944" calcext:value-type="float">
+            <text:p>944</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -556,8 +556,8 @@
             <text:p>Peptides of length 8-11:</text:p>
           </table:table-cell>
           <table:covered-table-cell/>
-          <table:table-cell table:formula="of:=SUM([.B33:.B38])" office:value-type="float" office:value="11376" calcext:value-type="float">
-            <text:p>11376</text:p>
+          <table:table-cell table:formula="of:=SUM([.B33:.B38])" office:value-type="float" office:value="14472" calcext:value-type="float">
+            <text:p>14472</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -568,8 +568,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*01:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="4303" calcext:value-type="float">
-            <text:p>4303</text:p>
+          <table:table-cell office:value-type="float" office:value="4378" calcext:value-type="float">
+            <text:p>4378</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -580,8 +580,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*03:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="2476" calcext:value-type="float">
-            <text:p>2476</text:p>
+          <table:table-cell office:value-type="float" office:value="2756" calcext:value-type="float">
+            <text:p>2756</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -592,8 +592,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*07:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="2804" calcext:value-type="float">
-            <text:p>2804</text:p>
+          <table:table-cell office:value-type="float" office:value="3831" calcext:value-type="float">
+            <text:p>3831</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -604,8 +604,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*08:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="814" calcext:value-type="float">
-            <text:p>814</text:p>
+          <table:table-cell office:value-type="float" office:value="1423" calcext:value-type="float">
+            <text:p>1423</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -616,8 +616,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*07:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="297" calcext:value-type="float">
-            <text:p>297</text:p>
+          <table:table-cell office:value-type="float" office:value="794" calcext:value-type="float">
+            <text:p>794</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -628,8 +628,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*07:02 </text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="682" calcext:value-type="float">
-            <text:p>682</text:p>
+          <table:table-cell office:value-type="float" office:value="1290" calcext:value-type="float">
+            <text:p>1290</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -692,149 +692,149 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>AUC</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.992</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.989" calcext:value-type="float">
             <text:p>0.989</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.811</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.741</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.915</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.905</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.986" calcext:value-type="float">
+            <text:p>0.986</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.821" calcext:value-type="float">
+            <text:p>0.821</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.756" calcext:value-type="float">
+            <text:p>0.756</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.975" calcext:value-type="float">
+            <text:p>0.975</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.894" calcext:value-type="float">
+            <text:p>0.894</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.897" calcext:value-type="float">
+            <text:p>0.897</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.653" calcext:value-type="float">
+            <text:p>0.653</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Accuracy</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.935" calcext:value-type="float">
+            <text:p>0.935</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.927" calcext:value-type="float">
+            <text:p>0.927</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.697" calcext:value-type="float">
+            <text:p>0.697</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.655" calcext:value-type="float">
+            <text:p>0.655</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.92" calcext:value-type="float">
+            <text:p>0.92</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.886" calcext:value-type="float">
+            <text:p>0.886</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.9" calcext:value-type="float">
+            <text:p>0.9</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.626" calcext:value-type="float">
+            <text:p>0.626</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Precision</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.973" calcext:value-type="float">
+            <text:p>0.973</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.968" calcext:value-type="float">
+            <text:p>0.968</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.804" calcext:value-type="float">
+            <text:p>0.804</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.737" calcext:value-type="float">
+            <text:p>0.737</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.967" calcext:value-type="float">
+            <text:p>0.967</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.954" calcext:value-type="float">
+            <text:p>0.954</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.963" calcext:value-type="float">
+            <text:p>0.963</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.267" calcext:value-type="float">
+            <text:p>0.267</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Sensitivity</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.898" calcext:value-type="float">
+            <text:p>0.898</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.883" calcext:value-type="float">
             <text:p>0.883</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.647</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Accuracy</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.948</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.941</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.698</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.654</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.826</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.898</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.875</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.618</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Precision</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.980</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell office:value-type="float" office:value="0.495" calcext:value-type="float">
+            <text:p>0.495</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.41" calcext:value-type="float">
+            <text:p>0.41</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.871" calcext:value-type="float">
+            <text:p>0.871</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.824" calcext:value-type="float">
+            <text:p>0.824</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.834" calcext:value-type="float">
+            <text:p>0.834</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.252" calcext:value-type="float">
+            <text:p>0.252</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Specificity</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.98" calcext:value-type="float">
+            <text:p>0.98</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.977" calcext:value-type="float">
             <text:p>0.977</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.805</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.739</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.783</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.961</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.806</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.378</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Sensitivity</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.915</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.902</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.494</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.409</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.672</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.842</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.769</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.254</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Specificity</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.983</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.980</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell office:value-type="float" office:value="0.899" calcext:value-type="float">
             <text:p>0.899</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell office:value-type="float" office:value="0.882" calcext:value-type="float">
             <text:p>0.882</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.934</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.968</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.954</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.851</text:p>
+          <table:table-cell office:value-type="float" office:value="0.97" calcext:value-type="float">
+            <text:p>0.97</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.965" calcext:value-type="float">
+            <text:p>0.965</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.967" calcext:value-type="float">
+            <text:p>0.967</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.85" calcext:value-type="float">
+            <text:p>0.85</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -884,119 +884,119 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>AUC</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.972</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.971" calcext:value-type="float">
+            <text:p>0.971</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.962" calcext:value-type="float">
+            <text:p>0.962</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.797" calcext:value-type="float">
+            <text:p>0.797</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.725" calcext:value-type="float">
+            <text:p>0.725</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.961" calcext:value-type="float">
             <text:p>0.961</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell office:value-type="float" office:value="0.891" calcext:value-type="float">
+            <text:p>0.891</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.874" calcext:value-type="float">
+            <text:p>0.874</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.637" calcext:value-type="float">
+            <text:p>0.637</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Accuracy</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.91" calcext:value-type="float">
+            <text:p>0.91</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.898" calcext:value-type="float">
+            <text:p>0.898</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.684" calcext:value-type="float">
+            <text:p>0.684</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.641" calcext:value-type="float">
+            <text:p>0.641</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.903" calcext:value-type="float">
+            <text:p>0.903</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.89" calcext:value-type="float">
+            <text:p>0.89</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.867" calcext:value-type="float">
+            <text:p>0.867</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.615" calcext:value-type="float">
+            <text:p>0.615</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Precision</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.958" calcext:value-type="float">
+            <text:p>0.958</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.95" calcext:value-type="float">
+            <text:p>0.95</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.793" calcext:value-type="float">
+            <text:p>0.793</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.715" calcext:value-type="float">
+            <text:p>0.715</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.947" calcext:value-type="float">
+            <text:p>0.947</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.951" calcext:value-type="float">
+            <text:p>0.951</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.942" calcext:value-type="float">
+            <text:p>0.942</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.258" calcext:value-type="float">
+            <text:p>0.258</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Sensitivity</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.853" calcext:value-type="float">
+            <text:p>0.853</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.832" calcext:value-type="float">
+            <text:p>0.832</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.471" calcext:value-type="float">
+            <text:p>0.471</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.385" calcext:value-type="float">
+            <text:p>0.385</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.843" calcext:value-type="float">
+            <text:p>0.843</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.818" calcext:value-type="float">
+            <text:p>0.818</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.762" calcext:value-type="float">
             <text:p>0.762</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.672</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.897</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.904</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.857</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.606</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Accuracy</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.919</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.907</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.692</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.646</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.825</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.905</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.842</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.611</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Precision</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.961</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.953</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.831</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.593</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.770</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.959</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.789</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.253</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Sensitivity</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.865</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.842</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.458</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.363</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.650</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.840</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.684</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.234</text:p>
+          <table:table-cell office:value-type="float" office:value="0.248" calcext:value-type="float">
+            <text:p>0.248</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -1004,29 +1004,29 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Specificity</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.973</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.968</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.892</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.873</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.923</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.968</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.937</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.847</text:p>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.971" calcext:value-type="float">
+            <text:p>0.971</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.966" calcext:value-type="float">
+            <text:p>0.966</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.894" calcext:value-type="float">
+            <text:p>0.894</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.877" calcext:value-type="float">
+            <text:p>0.877</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.954" calcext:value-type="float">
+            <text:p>0.954</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.964" calcext:value-type="float">
+            <text:p>0.964</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.952" calcext:value-type="float">
+            <text:p>0.952</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.85" calcext:value-type="float">
+            <text:p>0.85</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -1051,8 +1051,8 @@
             <text:p>Peptides of length 9:</text:p>
           </table:table-cell>
           <table:covered-table-cell/>
-          <table:table-cell table:formula="of:=SUM([.B25:.B30])" office:value-type="float" office:value="6873" calcext:value-type="float">
-            <text:p>6873</text:p>
+          <table:table-cell table:formula="of:=SUM([.B25:.B30])" office:value-type="float" office:value="8521" calcext:value-type="float">
+            <text:p>8521</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -1063,8 +1063,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*31:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="413" calcext:value-type="float">
-            <text:p>413</text:p>
+          <table:table-cell office:value-type="float" office:value="494" calcext:value-type="float">
+            <text:p>494</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -1075,8 +1075,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*24:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="2739" calcext:value-type="float">
-            <text:p>2739</text:p>
+          <table:table-cell office:value-type="float" office:value="2858" calcext:value-type="float">
+            <text:p>2858</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -1087,8 +1087,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*27:05</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1086" calcext:value-type="float">
-            <text:p>1086</text:p>
+          <table:table-cell office:value-type="float" office:value="1430" calcext:value-type="float">
+            <text:p>1430</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -1099,8 +1099,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*39:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="640" calcext:value-type="float">
-            <text:p>640</text:p>
+          <table:table-cell office:value-type="float" office:value="642" calcext:value-type="float">
+            <text:p>642</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -1111,8 +1111,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*02:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1180" calcext:value-type="float">
-            <text:p>1180</text:p>
+          <table:table-cell office:value-type="float" office:value="1298" calcext:value-type="float">
+            <text:p>1298</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -1123,8 +1123,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*12:03</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="815" calcext:value-type="float">
-            <text:p>815</text:p>
+          <table:table-cell office:value-type="float" office:value="1799" calcext:value-type="float">
+            <text:p>1799</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -1139,8 +1139,8 @@
             <text:p>Peptides of length 8-11:</text:p>
           </table:table-cell>
           <table:covered-table-cell/>
-          <table:table-cell table:formula="of:=SUM([.B33:.B38])" office:value-type="float" office:value="11049" calcext:value-type="float">
-            <text:p>11049</text:p>
+          <table:table-cell table:formula="of:=SUM([.B33:.B38])" office:value-type="float" office:value="13589" calcext:value-type="float">
+            <text:p>13589</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -1151,8 +1151,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*31:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="910" calcext:value-type="float">
-            <text:p>910</text:p>
+          <table:table-cell office:value-type="float" office:value="1098" calcext:value-type="float">
+            <text:p>1098</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -1163,8 +1163,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*24:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="4713" calcext:value-type="float">
-            <text:p>4713</text:p>
+          <table:table-cell office:value-type="float" office:value="4880" calcext:value-type="float">
+            <text:p>4880</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -1175,8 +1175,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*27:05</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1967" calcext:value-type="float">
-            <text:p>1967</text:p>
+          <table:table-cell office:value-type="float" office:value="2675" calcext:value-type="float">
+            <text:p>2675</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -1187,8 +1187,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*39:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="926" calcext:value-type="float">
-            <text:p>926</text:p>
+          <table:table-cell office:value-type="float" office:value="928" calcext:value-type="float">
+            <text:p>928</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -1199,8 +1199,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*02:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1549" calcext:value-type="float">
-            <text:p>1549</text:p>
+          <table:table-cell office:value-type="float" office:value="1798" calcext:value-type="float">
+            <text:p>1798</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -1211,8 +1211,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*12:03</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="984" calcext:value-type="float">
-            <text:p>984</text:p>
+          <table:table-cell office:value-type="float" office:value="2210" calcext:value-type="float">
+            <text:p>2210</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -1278,149 +1278,149 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>AUC</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.996</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.994</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.780</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.710</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.992" calcext:value-type="float">
+            <text:p>0.992</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.99" calcext:value-type="float">
+            <text:p>0.99</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.767" calcext:value-type="float">
+            <text:p>0.767</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.706" calcext:value-type="float">
+            <text:p>0.706</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.974" calcext:value-type="float">
+            <text:p>0.974</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.926" calcext:value-type="float">
+            <text:p>0.926</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.939" calcext:value-type="float">
+            <text:p>0.939</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.629" calcext:value-type="float">
+            <text:p>0.629</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Accuracy</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.957" calcext:value-type="float">
+            <text:p>0.957</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.952" calcext:value-type="float">
+            <text:p>0.952</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.656" calcext:value-type="float">
+            <text:p>0.656</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.616" calcext:value-type="float">
+            <text:p>0.616</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.937" calcext:value-type="float">
+            <text:p>0.937</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.923" calcext:value-type="float">
+            <text:p>0.923</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.953" calcext:value-type="float">
+            <text:p>0.953</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.569" calcext:value-type="float">
+            <text:p>0.569</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Precision</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.983" calcext:value-type="float">
             <text:p>0.983</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.935</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.951</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.631</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Accuracy</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.972</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.981" calcext:value-type="float">
+            <text:p>0.981</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.794" calcext:value-type="float">
+            <text:p>0.794</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.738" calcext:value-type="float">
+            <text:p>0.738</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.964" calcext:value-type="float">
+            <text:p>0.964</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.969" calcext:value-type="float">
             <text:p>0.969</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.650</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.605</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.965</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.940</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.965</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.626</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Precision</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.987</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell office:value-type="float" office:value="0.983" calcext:value-type="float">
+            <text:p>0.983</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.342" calcext:value-type="float">
+            <text:p>0.342</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Sensitivity</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.929" calcext:value-type="float">
+            <text:p>0.929</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.921" calcext:value-type="float">
+            <text:p>0.921</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.434" calcext:value-type="float">
+            <text:p>0.434</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.364" calcext:value-type="float">
+            <text:p>0.364</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.908" calcext:value-type="float">
+            <text:p>0.908</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.877" calcext:value-type="float">
+            <text:p>0.877</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.919" calcext:value-type="float">
+            <text:p>0.919</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.252" calcext:value-type="float">
+            <text:p>0.252</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Specificity</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.986" calcext:value-type="float">
+            <text:p>0.986</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.984" calcext:value-type="float">
             <text:p>0.984</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.785</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.729</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.979</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.972</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.983</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.276</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Sensitivity</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.955</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.948</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.449</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.370</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.944</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.892</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.944</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.254</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Specificity</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.991</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.990</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.890</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.874</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.979</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.978</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.989</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.851</text:p>
+          <table:table-cell office:value-type="float" office:value="0.887" calcext:value-type="float">
+            <text:p>0.887</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.873" calcext:value-type="float">
+            <text:p>0.873</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.966" calcext:value-type="float">
+            <text:p>0.966</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.975" calcext:value-type="float">
+            <text:p>0.975</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.984" calcext:value-type="float">
+            <text:p>0.984</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.85" calcext:value-type="float">
+            <text:p>0.85</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -1470,28 +1470,28 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>AUC</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.976</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.966</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.773</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.696</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.959</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.916</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.905</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.965" calcext:value-type="float">
+            <text:p>0.965</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.956" calcext:value-type="float">
+            <text:p>0.956</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.759" calcext:value-type="float">
+            <text:p>0.759</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.697" calcext:value-type="float">
+            <text:p>0.697</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.93" calcext:value-type="float">
+            <text:p>0.93</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.896" calcext:value-type="float">
+            <text:p>0.896</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.859" calcext:value-type="float">
+            <text:p>0.859</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.619" calcext:value-type="float">
             <text:p>0.619</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
@@ -1500,29 +1500,29 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Accuracy</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.937</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.928</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.637</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.588</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.935</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.927</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.891</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.570</text:p>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.92" calcext:value-type="float">
+            <text:p>0.92</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.911" calcext:value-type="float">
+            <text:p>0.911</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.657" calcext:value-type="float">
+            <text:p>0.657</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.617" calcext:value-type="float">
+            <text:p>0.617</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.886" calcext:value-type="float">
+            <text:p>0.886</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.895" calcext:value-type="float">
+            <text:p>0.895</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.836" calcext:value-type="float">
+            <text:p>0.836</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.55" calcext:value-type="float">
+            <text:p>0.55</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -1530,89 +1530,89 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Precision</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.968" calcext:value-type="float">
             <text:p>0.968</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.961</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.765</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.698</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.953</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.963" calcext:value-type="float">
+            <text:p>0.963</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.799" calcext:value-type="float">
+            <text:p>0.799</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.742" calcext:value-type="float">
+            <text:p>0.742</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.919" calcext:value-type="float">
+            <text:p>0.919</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.957" calcext:value-type="float">
+            <text:p>0.957</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.923" calcext:value-type="float">
+            <text:p>0.923</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.318" calcext:value-type="float">
+            <text:p>0.318</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Sensitivity</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.866" calcext:value-type="float">
+            <text:p>0.866</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.85" calcext:value-type="float">
+            <text:p>0.85</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.431" calcext:value-type="float">
+            <text:p>0.431</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.363" calcext:value-type="float">
+            <text:p>0.363</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.847" calcext:value-type="float">
+            <text:p>0.847</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.827" calcext:value-type="float">
+            <text:p>0.827</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.703" calcext:value-type="float">
+            <text:p>0.703</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.236" calcext:value-type="float">
+            <text:p>0.236</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Specificity</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.973" calcext:value-type="float">
+            <text:p>0.973</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.97" calcext:value-type="float">
+            <text:p>0.97</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.886" calcext:value-type="float">
+            <text:p>0.886</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.873" calcext:value-type="float">
+            <text:p>0.873</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.919" calcext:value-type="float">
+            <text:p>0.919</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.965" calcext:value-type="float">
             <text:p>0.965</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.944</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.312</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Sensitivity</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.897</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.881</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.429</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.341</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.901</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.861</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.822</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.239</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Specificity</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.979</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.976</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.886</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.868</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.955</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.972</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.964</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.848</text:p>
+          <table:table-cell office:value-type="float" office:value="0.941" calcext:value-type="float">
+            <text:p>0.941</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.847" calcext:value-type="float">
+            <text:p>0.847</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -1637,8 +1637,8 @@
             <text:p>Peptides of length 9:</text:p>
           </table:table-cell>
           <table:covered-table-cell/>
-          <table:table-cell table:formula="of:=SUM([.B25:.B30])" office:value-type="float" office:value="8621" calcext:value-type="float">
-            <text:p>8621</text:p>
+          <table:table-cell table:formula="of:=SUM([.B25:.B30])" office:value-type="float" office:value="9532" calcext:value-type="float">
+            <text:p>9532</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -1649,8 +1649,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*02:03</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1199" calcext:value-type="float">
-            <text:p>1199</text:p>
+          <table:table-cell office:value-type="float" office:value="1796" calcext:value-type="float">
+            <text:p>1796</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -1661,8 +1661,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*68:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="864" calcext:value-type="float">
-            <text:p>864</text:p>
+          <table:table-cell office:value-type="float" office:value="955" calcext:value-type="float">
+            <text:p>955</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -1673,8 +1673,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*15:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="3643" calcext:value-type="float">
-            <text:p>3643</text:p>
+          <table:table-cell office:value-type="float" office:value="2214" calcext:value-type="float">
+            <text:p>2214</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -1685,8 +1685,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*27:07</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1118" calcext:value-type="float">
-            <text:p>1118</text:p>
+          <table:table-cell office:value-type="float" office:value="1116" calcext:value-type="float">
+            <text:p>1116</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -1697,8 +1697,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*01:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="972" calcext:value-type="float">
-            <text:p>972</text:p>
+          <table:table-cell office:value-type="float" office:value="1434" calcext:value-type="float">
+            <text:p>1434</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -1709,8 +1709,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*03:03</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="825" calcext:value-type="float">
-            <text:p>825</text:p>
+          <table:table-cell office:value-type="float" office:value="2017" calcext:value-type="float">
+            <text:p>2017</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -1725,8 +1725,8 @@
             <text:p>Peptides of length 8-11:</text:p>
           </table:table-cell>
           <table:covered-table-cell/>
-          <table:table-cell table:formula="of:=SUM([.B33:.B38])" office:value-type="float" office:value="13767" calcext:value-type="float">
-            <text:p>13767</text:p>
+          <table:table-cell table:formula="of:=SUM([.B33:.B38])" office:value-type="float" office:value="14828" calcext:value-type="float">
+            <text:p>14828</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -1737,8 +1737,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*02:03</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1770" calcext:value-type="float">
-            <text:p>1770</text:p>
+          <table:table-cell office:value-type="float" office:value="2618" calcext:value-type="float">
+            <text:p>2618</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -1749,8 +1749,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*68:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1466" calcext:value-type="float">
-            <text:p>1466</text:p>
+          <table:table-cell office:value-type="float" office:value="1714" calcext:value-type="float">
+            <text:p>1714</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -1761,8 +1761,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*15:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="6184" calcext:value-type="float">
-            <text:p>6184</text:p>
+          <table:table-cell office:value-type="float" office:value="3391" calcext:value-type="float">
+            <text:p>3391</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -1773,8 +1773,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*27:07</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1961" calcext:value-type="float">
-            <text:p>1961</text:p>
+          <table:table-cell office:value-type="float" office:value="1959" calcext:value-type="float">
+            <text:p>1959</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -1785,8 +1785,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*01:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1341" calcext:value-type="float">
-            <text:p>1341</text:p>
+          <table:table-cell office:value-type="float" office:value="2062" calcext:value-type="float">
+            <text:p>2062</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -1797,8 +1797,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*03:03</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1045" calcext:value-type="float">
-            <text:p>1045</text:p>
+          <table:table-cell office:value-type="float" office:value="3084" calcext:value-type="float">
+            <text:p>3084</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -1864,26 +1864,26 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>AUC</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="2" table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.998</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.735</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.652</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.997" calcext:value-type="float">
+            <text:p>0.997</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.996" calcext:value-type="float">
             <text:p>0.996</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.980</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.982</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.595</text:p>
+          <table:table-cell office:value-type="float" office:value="0.739" calcext:value-type="float">
+            <text:p>0.739</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.651" calcext:value-type="float">
+            <text:p>0.651</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.951" calcext:value-type="float">
+            <text:p>0.951</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2" office:value-type="float" office:value="0.974" calcext:value-type="float">
+            <text:p>0.974</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.593" calcext:value-type="float">
+            <text:p>0.593</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -1891,29 +1891,29 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Accuracy</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.987</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.986</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.638</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.592</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.987</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.981</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.985</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.608</text:p>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.98" calcext:value-type="float">
+            <text:p>0.98</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.978" calcext:value-type="float">
+            <text:p>0.978</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.626" calcext:value-type="float">
+            <text:p>0.626</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.578" calcext:value-type="float">
+            <text:p>0.578</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.926" calcext:value-type="float">
+            <text:p>0.926</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.974" calcext:value-type="float">
+            <text:p>0.974</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.977" calcext:value-type="float">
+            <text:p>0.977</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.602" calcext:value-type="float">
+            <text:p>0.602</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -1921,83 +1921,86 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Precision</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.994</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.991" calcext:value-type="float">
+            <text:p>0.991</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.989" calcext:value-type="float">
+            <text:p>0.989</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.734" calcext:value-type="float">
+            <text:p>0.734</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.622" calcext:value-type="float">
+            <text:p>0.622</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.811" calcext:value-type="float">
+            <text:p>0.811</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.988" calcext:value-type="float">
+            <text:p>0.988</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.992" calcext:value-type="float">
+            <text:p>0.992</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.267" calcext:value-type="float">
+            <text:p>0.267</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Sensitivity</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.966" calcext:value-type="float">
+            <text:p>0.966</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.96" calcext:value-type="float">
+            <text:p>0.96</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.376" calcext:value-type="float">
+            <text:p>0.376</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.278" calcext:value-type="float">
+            <text:p>0.278</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.807" calcext:value-type="float">
+            <text:p>0.807</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.957" calcext:value-type="float">
+            <text:p>0.957</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.955" calcext:value-type="float">
+            <text:p>0.955</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.225" calcext:value-type="float">
+            <text:p>0.225</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Specificity</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.993" calcext:value-type="float">
             <text:p>0.993</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.754</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.641</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.994</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.992" calcext:value-type="float">
+            <text:p>0.992</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.875" calcext:value-type="float">
+            <text:p>0.875</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.856" calcext:value-type="float">
+            <text:p>0.856</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.955" calcext:value-type="float">
+            <text:p>0.955</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2" office:value-type="float" office:value="0.991" calcext:value-type="float">
             <text:p>0.991</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.994</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.268</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Sensitivity</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.977</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.973</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.382</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.288</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.974</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.967</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.971</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.229</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Specificity</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="2" table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.995</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.876</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.858</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="2" office:value-type="string" calcext:value-type="string">
-            <text:p>0.993</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.994</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.846</text:p>
+          <table:table-cell office:value-type="float" office:value="0.845" calcext:value-type="float">
+            <text:p>0.845</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -2047,149 +2050,149 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>AUC</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.979</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.972</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.741</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.658</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.989</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.982" calcext:value-type="float">
+            <text:p>0.982</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.975" calcext:value-type="float">
+            <text:p>0.975</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.743" calcext:value-type="float">
+            <text:p>0.743</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.657" calcext:value-type="float">
+            <text:p>0.657</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.947" calcext:value-type="float">
+            <text:p>0.947</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.962" calcext:value-type="float">
+            <text:p>0.962</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.937" calcext:value-type="float">
+            <text:p>0.937</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.595" calcext:value-type="float">
+            <text:p>0.595</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Accuracy</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.952" calcext:value-type="float">
+            <text:p>0.952</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.946" calcext:value-type="float">
+            <text:p>0.946</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.64" calcext:value-type="float">
+            <text:p>0.64</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.595" calcext:value-type="float">
+            <text:p>0.595</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.92" calcext:value-type="float">
+            <text:p>0.92</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.966" calcext:value-type="float">
+            <text:p>0.966</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.923" calcext:value-type="float">
+            <text:p>0.923</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.593" calcext:value-type="float">
+            <text:p>0.593</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Precision</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.975" calcext:value-type="float">
+            <text:p>0.975</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.967" calcext:value-type="float">
+            <text:p>0.967</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.753" calcext:value-type="float">
+            <text:p>0.753</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.623" calcext:value-type="float">
+            <text:p>0.623</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.805" calcext:value-type="float">
+            <text:p>0.805</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.983" calcext:value-type="float">
+            <text:p>0.983</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.97" calcext:value-type="float">
+            <text:p>0.97</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.259" calcext:value-type="float">
+            <text:p>0.259</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Sensitivity</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.918" calcext:value-type="float">
+            <text:p>0.918</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.903" calcext:value-type="float">
+            <text:p>0.903</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.397" calcext:value-type="float">
+            <text:p>0.397</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.302" calcext:value-type="float">
+            <text:p>0.302</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.797" calcext:value-type="float">
+            <text:p>0.797</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.937" calcext:value-type="float">
+            <text:p>0.937</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.854" calcext:value-type="float">
+            <text:p>0.854</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.222" calcext:value-type="float">
+            <text:p>0.222</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Specificity</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.984" calcext:value-type="float">
+            <text:p>0.984</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.981" calcext:value-type="float">
+            <text:p>0.981</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.879" calcext:value-type="float">
+            <text:p>0.879</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.86" calcext:value-type="float">
+            <text:p>0.86</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.944" calcext:value-type="float">
+            <text:p>0.944</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.987" calcext:value-type="float">
+            <text:p>0.987</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.971" calcext:value-type="float">
             <text:p>0.971</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.945</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.587</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Accuracy</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.953</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.947</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.649</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.605</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.978</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.974</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.927</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.569</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Precision</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.975</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.969</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.767</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.649</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.986</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.987</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.970</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.221</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Sensitivity</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.921</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.908</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.405</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.312</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.957</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.952</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.865</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.193</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Specificity</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.984</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.982</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.881</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.862</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.983</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.990</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.973</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.839</text:p>
+          <table:table-cell office:value-type="float" office:value="0.844" calcext:value-type="float">
+            <text:p>0.844</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -2214,8 +2217,8 @@
             <text:p>Peptides of length 9:</text:p>
           </table:table-cell>
           <table:covered-table-cell/>
-          <table:table-cell table:formula="of:=SUM([.B25:.B30])" office:value-type="float" office:value="9807" calcext:value-type="float">
-            <text:p>9807</text:p>
+          <table:table-cell table:formula="of:=SUM([.B25:.B30])" office:value-type="float" office:value="12409" calcext:value-type="float">
+            <text:p>12409</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -2226,8 +2229,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*02:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="3336" calcext:value-type="float">
-            <text:p>3336</text:p>
+          <table:table-cell office:value-type="float" office:value="3706" calcext:value-type="float">
+            <text:p>3706</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -2238,8 +2241,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*11:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1293" calcext:value-type="float">
-            <text:p>1293</text:p>
+          <table:table-cell office:value-type="float" office:value="2043" calcext:value-type="float">
+            <text:p>2043</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -2262,8 +2265,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*35:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="691" calcext:value-type="float">
-            <text:p>691</text:p>
+          <table:table-cell office:value-type="float" office:value="730" calcext:value-type="float">
+            <text:p>730</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -2274,8 +2277,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*03:04</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1582" calcext:value-type="float">
-            <text:p>1582</text:p>
+          <table:table-cell office:value-type="float" office:value="2601" calcext:value-type="float">
+            <text:p>2601</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -2286,8 +2289,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*14:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1604" calcext:value-type="float">
-            <text:p>1604</text:p>
+          <table:table-cell office:value-type="float" office:value="2028" calcext:value-type="float">
+            <text:p>2028</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -2302,8 +2305,8 @@
             <text:p>Peptides of length 8-11:</text:p>
           </table:table-cell>
           <table:covered-table-cell/>
-          <table:table-cell table:formula="of:=SUM([.B33:.B38])" office:value-type="float" office:value="16275" calcext:value-type="float">
-            <text:p>16275</text:p>
+          <table:table-cell table:formula="of:=SUM([.B33:.B38])" office:value-type="float" office:value="20741" calcext:value-type="float">
+            <text:p>20741</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -2314,8 +2317,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*02:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="5585" calcext:value-type="float">
-            <text:p>5585</text:p>
+          <table:table-cell office:value-type="float" office:value="6134" calcext:value-type="float">
+            <text:p>6134</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -2326,8 +2329,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*11:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="2256" calcext:value-type="float">
-            <text:p>2256</text:p>
+          <table:table-cell office:value-type="float" office:value="4056" calcext:value-type="float">
+            <text:p>4056</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -2350,8 +2353,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*35:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1051" calcext:value-type="float">
-            <text:p>1051</text:p>
+          <table:table-cell office:value-type="float" office:value="1143" calcext:value-type="float">
+            <text:p>1143</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -2362,8 +2365,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*03:04</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="2094" calcext:value-type="float">
-            <text:p>2094</text:p>
+          <table:table-cell office:value-type="float" office:value="3453" calcext:value-type="float">
+            <text:p>3453</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -2374,8 +2377,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*14:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="2439" calcext:value-type="float">
-            <text:p>2439</text:p>
+          <table:table-cell office:value-type="float" office:value="3105" calcext:value-type="float">
+            <text:p>3105</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -2441,29 +2444,29 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>AUC</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.995</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.993" calcext:value-type="float">
             <text:p>0.993</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.823</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.991" calcext:value-type="float">
+            <text:p>0.991</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.816" calcext:value-type="float">
+            <text:p>0.816</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.756" calcext:value-type="float">
             <text:p>0.756</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.950</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.915</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.882</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.665</text:p>
+          <table:table-cell office:value-type="float" office:value="0.896" calcext:value-type="float">
+            <text:p>0.896</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.907" calcext:value-type="float">
+            <text:p>0.907</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.881" calcext:value-type="float">
+            <text:p>0.881</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.662" calcext:value-type="float">
+            <text:p>0.662</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -2471,29 +2474,29 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Accuracy</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.962</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.957</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.704</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.660</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.903</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.908</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.876</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.652</text:p>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.952" calcext:value-type="float">
+            <text:p>0.952</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.946" calcext:value-type="float">
+            <text:p>0.946</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.701" calcext:value-type="float">
+            <text:p>0.701</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.662" calcext:value-type="float">
+            <text:p>0.662</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.883" calcext:value-type="float">
+            <text:p>0.883</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.898" calcext:value-type="float">
+            <text:p>0.898</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.885" calcext:value-type="float">
+            <text:p>0.885</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.636" calcext:value-type="float">
+            <text:p>0.636</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -2501,29 +2504,29 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Precision</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.981</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.98" calcext:value-type="float">
+            <text:p>0.98</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.977" calcext:value-type="float">
             <text:p>0.977</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.791</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.687</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.803</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.963</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.800</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.402</text:p>
+          <table:table-cell office:value-type="float" office:value="0.808" calcext:value-type="float">
+            <text:p>0.808</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.716" calcext:value-type="float">
+            <text:p>0.716</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.794" calcext:value-type="float">
+            <text:p>0.794</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.961" calcext:value-type="float">
+            <text:p>0.961</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.801" calcext:value-type="float">
+            <text:p>0.801</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.395" calcext:value-type="float">
+            <text:p>0.395</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -2531,29 +2534,29 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Sensitivity</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.937</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.925</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.506</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.422</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.784</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.859</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.749</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.290</text:p>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.921" calcext:value-type="float">
+            <text:p>0.921</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.909" calcext:value-type="float">
+            <text:p>0.909</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.509" calcext:value-type="float">
+            <text:p>0.509</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.434" calcext:value-type="float">
+            <text:p>0.434</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.757" calcext:value-type="float">
+            <text:p>0.757</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.845" calcext:value-type="float">
+            <text:p>0.845</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.757" calcext:value-type="float">
+            <text:p>0.757</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.282" calcext:value-type="float">
+            <text:p>0.282</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -2561,29 +2564,29 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Specificity</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.987</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.985</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.901</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.884</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.956</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.972</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.950</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.858</text:p>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.984" calcext:value-type="float">
+            <text:p>0.984</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.982" calcext:value-type="float">
+            <text:p>0.982</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.902" calcext:value-type="float">
+            <text:p>0.902</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.887" calcext:value-type="float">
+            <text:p>0.887</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.946" calcext:value-type="float">
+            <text:p>0.946</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.969" calcext:value-type="float">
+            <text:p>0.969</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.951" calcext:value-type="float">
+            <text:p>0.951</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.856" calcext:value-type="float">
+            <text:p>0.856</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -2633,29 +2636,29 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>AUC</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.983</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.978</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.815</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.754</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.941</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.908</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.863</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.654</text:p>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.981" calcext:value-type="float">
+            <text:p>0.981</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.976" calcext:value-type="float">
+            <text:p>0.976</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.813" calcext:value-type="float">
+            <text:p>0.813</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.76" calcext:value-type="float">
+            <text:p>0.76</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.895" calcext:value-type="float">
+            <text:p>0.895</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.898" calcext:value-type="float">
+            <text:p>0.898</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.852" calcext:value-type="float">
+            <text:p>0.852</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.661" calcext:value-type="float">
+            <text:p>0.661</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -2663,29 +2666,29 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Accuracy</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.937</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.929</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.702</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.662</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.890</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.904</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.852</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.615</text:p>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.935" calcext:value-type="float">
+            <text:p>0.935</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.927" calcext:value-type="float">
+            <text:p>0.927</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.707" calcext:value-type="float">
+            <text:p>0.707</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.672" calcext:value-type="float">
+            <text:p>0.672</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.854" calcext:value-type="float">
+            <text:p>0.854</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.893" calcext:value-type="float">
+            <text:p>0.893</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.827" calcext:value-type="float">
+            <text:p>0.827</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.607" calcext:value-type="float">
+            <text:p>0.607</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -2693,89 +2696,89 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Precision</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.972</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.973" calcext:value-type="float">
+            <text:p>0.973</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.969" calcext:value-type="float">
+            <text:p>0.969</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.828" calcext:value-type="float">
+            <text:p>0.828</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.78" calcext:value-type="float">
+            <text:p>0.78</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.781" calcext:value-type="float">
+            <text:p>0.781</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.957" calcext:value-type="float">
+            <text:p>0.957</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.778" calcext:value-type="float">
+            <text:p>0.778</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.389" calcext:value-type="float">
+            <text:p>0.389</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Sensitivity</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.895" calcext:value-type="float">
+            <text:p>0.895</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.882" calcext:value-type="float">
+            <text:p>0.882</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.51" calcext:value-type="float">
+            <text:p>0.51</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.444" calcext:value-type="float">
+            <text:p>0.444</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.733" calcext:value-type="float">
+            <text:p>0.733</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.83" calcext:value-type="float">
+            <text:p>0.83</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.676" calcext:value-type="float">
+            <text:p>0.676</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.27" calcext:value-type="float">
+            <text:p>0.27</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Specificity</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.979" calcext:value-type="float">
+            <text:p>0.979</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.976" calcext:value-type="float">
+            <text:p>0.976</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.902" calcext:value-type="float">
+            <text:p>0.902</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.889" calcext:value-type="float">
+            <text:p>0.889</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.933" calcext:value-type="float">
+            <text:p>0.933</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.966" calcext:value-type="float">
             <text:p>0.966</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.817</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.756</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.799</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.959</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.784</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.374</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Sensitivity</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.898</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.883</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.505</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.432</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.764</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.847</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.697</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.256</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Specificity</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.980</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.977</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.901</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.886</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.949</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.969</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.939</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.851</text:p>
+          <table:table-cell office:value-type="float" office:value="0.935" calcext:value-type="float">
+            <text:p>0.935</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.854" calcext:value-type="float">
+            <text:p>0.854</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -2800,8 +2803,8 @@
             <text:p>Peptides of length 9:</text:p>
           </table:table-cell>
           <table:covered-table-cell/>
-          <table:table-cell table:formula="of:=SUM([.B25:.B30])" office:value-type="float" office:value="10711" calcext:value-type="float">
-            <text:p>10711</text:p>
+          <table:table-cell table:formula="of:=SUM([.B25:.B30])" office:value-type="float" office:value="13579" calcext:value-type="float">
+            <text:p>13579</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -2812,8 +2815,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*02:07</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="2350" calcext:value-type="float">
-            <text:p>2350</text:p>
+          <table:table-cell office:value-type="float" office:value="2761" calcext:value-type="float">
+            <text:p>2761</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -2824,8 +2827,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*29:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="3857" calcext:value-type="float">
-            <text:p>3857</text:p>
+          <table:table-cell office:value-type="float" office:value="3859" calcext:value-type="float">
+            <text:p>3859</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -2836,8 +2839,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*40:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="704" calcext:value-type="float">
-            <text:p>704</text:p>
+          <table:table-cell office:value-type="float" office:value="1327" calcext:value-type="float">
+            <text:p>1327</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -2848,8 +2851,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*44:03</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="922" calcext:value-type="float">
-            <text:p>922</text:p>
+          <table:table-cell office:value-type="float" office:value="999" calcext:value-type="float">
+            <text:p>999</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -2860,8 +2863,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*01:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="924" calcext:value-type="float">
-            <text:p>924</text:p>
+          <table:table-cell office:value-type="float" office:value="1362" calcext:value-type="float">
+            <text:p>1362</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -2872,8 +2875,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*16:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1954" calcext:value-type="float">
-            <text:p>1954</text:p>
+          <table:table-cell office:value-type="float" office:value="3271" calcext:value-type="float">
+            <text:p>3271</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -2888,8 +2891,8 @@
             <text:p>Peptides of length 8-11:</text:p>
           </table:table-cell>
           <table:covered-table-cell/>
-          <table:table-cell table:formula="of:=SUM([.B33:.B38])" office:value-type="float" office:value="15990" calcext:value-type="float">
-            <text:p>15990</text:p>
+          <table:table-cell table:formula="of:=SUM([.B33:.B38])" office:value-type="float" office:value="20997" calcext:value-type="float">
+            <text:p>20997</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -2900,8 +2903,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*02:07</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="3194" calcext:value-type="float">
-            <text:p>3194</text:p>
+          <table:table-cell office:value-type="float" office:value="3735" calcext:value-type="float">
+            <text:p>3735</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -2912,8 +2915,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*29:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="5312" calcext:value-type="float">
-            <text:p>5312</text:p>
+          <table:table-cell office:value-type="float" office:value="5347" calcext:value-type="float">
+            <text:p>5347</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -2924,8 +2927,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*40:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1221" calcext:value-type="float">
-            <text:p>1221</text:p>
+          <table:table-cell office:value-type="float" office:value="2886" calcext:value-type="float">
+            <text:p>2886</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -2936,8 +2939,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*44:03</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="2044" calcext:value-type="float">
-            <text:p>2044</text:p>
+          <table:table-cell office:value-type="float" office:value="2193" calcext:value-type="float">
+            <text:p>2193</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -2948,8 +2951,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*01:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1288" calcext:value-type="float">
-            <text:p>1288</text:p>
+          <table:table-cell office:value-type="float" office:value="1980" calcext:value-type="float">
+            <text:p>1980</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -2960,8 +2963,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*16:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="2931" calcext:value-type="float">
-            <text:p>2931</text:p>
+          <table:table-cell office:value-type="float" office:value="4856" calcext:value-type="float">
+            <text:p>4856</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -3027,26 +3030,29 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>AUC</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="2" table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.997</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.845</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.787</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.996</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.957</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.964</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.679</text:p>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.995" calcext:value-type="float">
+            <text:p>0.995</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.993" calcext:value-type="float">
+            <text:p>0.993</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.791" calcext:value-type="float">
+            <text:p>0.791</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.717" calcext:value-type="float">
+            <text:p>0.717</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.991" calcext:value-type="float">
+            <text:p>0.991</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.949" calcext:value-type="float">
+            <text:p>0.949</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.952" calcext:value-type="float">
+            <text:p>0.952</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.643" calcext:value-type="float">
+            <text:p>0.643</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -3054,29 +3060,29 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Accuracy</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.974</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.971</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.755</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.722</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.978</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.954</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.971</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.659</text:p>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.966" calcext:value-type="float">
+            <text:p>0.966</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.961" calcext:value-type="float">
+            <text:p>0.961</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.727" calcext:value-type="float">
+            <text:p>0.727</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.693" calcext:value-type="float">
+            <text:p>0.693</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.966" calcext:value-type="float">
+            <text:p>0.966</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.946" calcext:value-type="float">
+            <text:p>0.946</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.958" calcext:value-type="float">
+            <text:p>0.958</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.618" calcext:value-type="float">
+            <text:p>0.618</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -3084,89 +3090,89 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Precision</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.989</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.986" calcext:value-type="float">
             <text:p>0.986</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.852</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.807</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.990</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.977</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.982" calcext:value-type="float">
+            <text:p>0.982</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.859" calcext:value-type="float">
+            <text:p>0.859</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.65" calcext:value-type="float">
+            <text:p>0.65</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.984" calcext:value-type="float">
+            <text:p>0.984</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.975" calcext:value-type="float">
+            <text:p>0.975</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.984" calcext:value-type="float">
+            <text:p>0.984</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.261" calcext:value-type="float">
+            <text:p>0.261</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Sensitivity</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.942" calcext:value-type="float">
+            <text:p>0.942</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.933" calcext:value-type="float">
+            <text:p>0.933</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.554" calcext:value-type="float">
+            <text:p>0.554</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.481" calcext:value-type="float">
+            <text:p>0.481</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.941" calcext:value-type="float">
+            <text:p>0.941</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.915" calcext:value-type="float">
+            <text:p>0.915</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.926" calcext:value-type="float">
+            <text:p>0.926</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.281" calcext:value-type="float">
+            <text:p>0.281</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Specificity</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.988" calcext:value-type="float">
+            <text:p>0.988</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.987" calcext:value-type="float">
             <text:p>0.987</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.282</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Sensitivity</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.960</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.954</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.591</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.521</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.963</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.929</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.953</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.284</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Specificity</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.992</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.991</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.918</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.904</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.991</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.986</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.991</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.857</text:p>
+          <table:table-cell office:value-type="float" office:value="0.911" calcext:value-type="float">
+            <text:p>0.911</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.896" calcext:value-type="float">
+            <text:p>0.896</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.985" calcext:value-type="float">
+            <text:p>0.985</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.983" calcext:value-type="float">
+            <text:p>0.983</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.985" calcext:value-type="float">
+            <text:p>0.985</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.856" calcext:value-type="float">
+            <text:p>0.856</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -3216,29 +3222,29 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>AUC</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.977" calcext:value-type="float">
             <text:p>0.977</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.970</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.826</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.760</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.990</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.944</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.881</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.661</text:p>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.97" calcext:value-type="float">
+            <text:p>0.97</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.822" calcext:value-type="float">
+            <text:p>0.822</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.756" calcext:value-type="float">
+            <text:p>0.756</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.979" calcext:value-type="float">
+            <text:p>0.979</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.933" calcext:value-type="float">
+            <text:p>0.933</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.919" calcext:value-type="float">
+            <text:p>0.919</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.667" calcext:value-type="float">
+            <text:p>0.667</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -3246,29 +3252,29 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Accuracy</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.939" calcext:value-type="float">
+            <text:p>0.939</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.931" calcext:value-type="float">
+            <text:p>0.931</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.746" calcext:value-type="float">
+            <text:p>0.746</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.713" calcext:value-type="float">
+            <text:p>0.713</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.949" calcext:value-type="float">
+            <text:p>0.949</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.936" calcext:value-type="float">
             <text:p>0.936</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.929</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.717</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.678</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.965</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.947</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.849</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.655</text:p>
+          <table:table-cell office:value-type="float" office:value="0.912" calcext:value-type="float">
+            <text:p>0.912</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.634" calcext:value-type="float">
+            <text:p>0.634</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -3276,89 +3282,89 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Precision</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.964</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.957</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.825</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.775</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.968" calcext:value-type="float">
+            <text:p>0.968</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.96" calcext:value-type="float">
+            <text:p>0.96</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.842" calcext:value-type="float">
+            <text:p>0.842</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.782" calcext:value-type="float">
+            <text:p>0.782</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.969" calcext:value-type="float">
+            <text:p>0.969</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.97" calcext:value-type="float">
+            <text:p>0.97</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.961" calcext:value-type="float">
+            <text:p>0.961</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.396" calcext:value-type="float">
+            <text:p>0.396</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Sensitivity</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.902" calcext:value-type="float">
+            <text:p>0.902</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.888" calcext:value-type="float">
+            <text:p>0.888</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.559" calcext:value-type="float">
+            <text:p>0.559</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.48" calcext:value-type="float">
+            <text:p>0.48</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.914" calcext:value-type="float">
+            <text:p>0.914</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.888" calcext:value-type="float">
+            <text:p>0.888</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.842" calcext:value-type="float">
+            <text:p>0.842</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.296" calcext:value-type="float">
+            <text:p>0.296</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Specificity</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.98" calcext:value-type="float">
+            <text:p>0.98</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.978" calcext:value-type="float">
             <text:p>0.978</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.972</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.775</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.283</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Sensitivity</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.906</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.893</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.530</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.448</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.942</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.906</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.696</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.270</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Specificity</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.981</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.979</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.906</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.890</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.982</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.981</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.939</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.854</text:p>
+          <table:table-cell office:value-type="float" office:value="0.912" calcext:value-type="float">
+            <text:p>0.912</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.896" calcext:value-type="float">
+            <text:p>0.896</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.97" calcext:value-type="float">
+            <text:p>0.97</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.978" calcext:value-type="float">
+            <text:p>0.978</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.968" calcext:value-type="float">
+            <text:p>0.968</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.859" calcext:value-type="float">
+            <text:p>0.859</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -3383,8 +3389,8 @@
             <text:p>Peptides of length 9:</text:p>
           </table:table-cell>
           <table:covered-table-cell/>
-          <table:table-cell table:formula="of:=SUM([.B25:.B30])" office:value-type="float" office:value="10368" calcext:value-type="float">
-            <text:p>10368</text:p>
+          <table:table-cell table:formula="of:=SUM([.B25:.B30])" office:value-type="float" office:value="14721" calcext:value-type="float">
+            <text:p>14721</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -3395,8 +3401,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*02:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="3299" calcext:value-type="float">
-            <text:p>3299</text:p>
+          <table:table-cell office:value-type="float" office:value="3635" calcext:value-type="float">
+            <text:p>3635</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -3407,8 +3413,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*24:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="2721" calcext:value-type="float">
-            <text:p>2721</text:p>
+          <table:table-cell office:value-type="float" office:value="2848" calcext:value-type="float">
+            <text:p>2848</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -3419,8 +3425,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*40:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1176" calcext:value-type="float">
-            <text:p>1176</text:p>
+          <table:table-cell office:value-type="float" office:value="2733" calcext:value-type="float">
+            <text:p>2733</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -3431,8 +3437,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*54:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="612" calcext:value-type="float">
-            <text:p>612</text:p>
+          <table:table-cell office:value-type="float" office:value="735" calcext:value-type="float">
+            <text:p>735</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -3443,8 +3449,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*01:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="959" calcext:value-type="float">
-            <text:p>959</text:p>
+          <table:table-cell office:value-type="float" office:value="1438" calcext:value-type="float">
+            <text:p>1438</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -3455,8 +3461,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*15:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1601" calcext:value-type="float">
-            <text:p>1601</text:p>
+          <table:table-cell office:value-type="float" office:value="3332" calcext:value-type="float">
+            <text:p>3332</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -3471,8 +3477,8 @@
             <text:p>Peptides of length 8-11:</text:p>
           </table:table-cell>
           <table:covered-table-cell/>
-          <table:table-cell table:formula="of:=SUM([.B33:.B38])" office:value-type="float" office:value="16702" calcext:value-type="float">
-            <text:p>16702</text:p>
+          <table:table-cell table:formula="of:=SUM([.B33:.B38])" office:value-type="float" office:value="23396" calcext:value-type="float">
+            <text:p>23396</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -3483,8 +3489,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*02:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="5539" calcext:value-type="float">
-            <text:p>5539</text:p>
+          <table:table-cell office:value-type="float" office:value="6055" calcext:value-type="float">
+            <text:p>6055</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -3495,8 +3501,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*24:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="4690" calcext:value-type="float">
-            <text:p>4690</text:p>
+          <table:table-cell office:value-type="float" office:value="4867" calcext:value-type="float">
+            <text:p>4867</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -3507,8 +3513,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*40:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="2218" calcext:value-type="float">
-            <text:p>2218</text:p>
+          <table:table-cell office:value-type="float" office:value="5042" calcext:value-type="float">
+            <text:p>5042</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -3519,8 +3525,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*54:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1060" calcext:value-type="float">
-            <text:p>1060</text:p>
+          <table:table-cell office:value-type="float" office:value="1296" calcext:value-type="float">
+            <text:p>1296</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -3531,8 +3537,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*01:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1328" calcext:value-type="float">
-            <text:p>1328</text:p>
+          <table:table-cell office:value-type="float" office:value="2082" calcext:value-type="float">
+            <text:p>2082</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -3543,8 +3549,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*15:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1867" calcext:value-type="float">
-            <text:p>1867</text:p>
+          <table:table-cell office:value-type="float" office:value="4054" calcext:value-type="float">
+            <text:p>4054</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -3610,29 +3616,29 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>AUC</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.991</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.989</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.790</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.718</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.981</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.958</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.955</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.650</text:p>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.99" calcext:value-type="float">
+            <text:p>0.99</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.987" calcext:value-type="float">
+            <text:p>0.987</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.841" calcext:value-type="float">
+            <text:p>0.841</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.795" calcext:value-type="float">
+            <text:p>0.795</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.971" calcext:value-type="float">
+            <text:p>0.971</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.935" calcext:value-type="float">
+            <text:p>0.935</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.924" calcext:value-type="float">
+            <text:p>0.924</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.702" calcext:value-type="float">
+            <text:p>0.702</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -3640,29 +3646,29 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Accuracy</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.957</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.952</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.717</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.680</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.954</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.951" calcext:value-type="float">
             <text:p>0.951</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.946</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.649</text:p>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.945" calcext:value-type="float">
+            <text:p>0.945</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.71" calcext:value-type="float">
+            <text:p>0.71</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.677" calcext:value-type="float">
+            <text:p>0.677</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.938" calcext:value-type="float">
+            <text:p>0.938</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.931" calcext:value-type="float">
+            <text:p>0.931</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.907" calcext:value-type="float">
+            <text:p>0.907</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.637" calcext:value-type="float">
+            <text:p>0.637</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -3670,89 +3676,89 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Precision</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.981</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.98" calcext:value-type="float">
+            <text:p>0.98</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.977" calcext:value-type="float">
+            <text:p>0.977</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.838" calcext:value-type="float">
+            <text:p>0.838</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.803" calcext:value-type="float">
+            <text:p>0.803</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.964" calcext:value-type="float">
+            <text:p>0.964</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.971" calcext:value-type="float">
+            <text:p>0.971</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.964" calcext:value-type="float">
+            <text:p>0.964</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.525" calcext:value-type="float">
+            <text:p>0.525</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Sensitivity</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.92" calcext:value-type="float">
+            <text:p>0.92</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.909" calcext:value-type="float">
+            <text:p>0.909</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.55" calcext:value-type="float">
+            <text:p>0.55</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.494" calcext:value-type="float">
+            <text:p>0.494</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.905" calcext:value-type="float">
+            <text:p>0.905</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.891" calcext:value-type="float">
+            <text:p>0.891</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.856" calcext:value-type="float">
+            <text:p>0.856</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.348" calcext:value-type="float">
+            <text:p>0.348</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Specificity</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.984" calcext:value-type="float">
+            <text:p>0.984</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.982" calcext:value-type="float">
+            <text:p>0.982</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.91" calcext:value-type="float">
+            <text:p>0.91</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.899" calcext:value-type="float">
+            <text:p>0.899</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.967" calcext:value-type="float">
+            <text:p>0.967</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.978" calcext:value-type="float">
             <text:p>0.978</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.861</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.666</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.973</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.976</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.978</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.409</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Sensitivity</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.939</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.932</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.533</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.461</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.934</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.931</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.921</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.302</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Specificity</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.988</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.986</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.907</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.892</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.979</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.986</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.984</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.860</text:p>
+          <table:table-cell office:value-type="float" office:value="0.971" calcext:value-type="float">
+            <text:p>0.971</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.87" calcext:value-type="float">
+            <text:p>0.87</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -3802,149 +3808,149 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>AUC</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.976</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.969</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.859</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.795</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.967</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.971" calcext:value-type="float">
+            <text:p>0.971</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.962" calcext:value-type="float">
+            <text:p>0.962</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.843" calcext:value-type="float">
+            <text:p>0.843</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.789" calcext:value-type="float">
+            <text:p>0.789</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.939" calcext:value-type="float">
+            <text:p>0.939</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.915" calcext:value-type="float">
+            <text:p>0.915</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.895" calcext:value-type="float">
+            <text:p>0.895</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.672" calcext:value-type="float">
+            <text:p>0.672</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Accuracy</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.917" calcext:value-type="float">
+            <text:p>0.917</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.907" calcext:value-type="float">
+            <text:p>0.907</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.729" calcext:value-type="float">
+            <text:p>0.729</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.694" calcext:value-type="float">
+            <text:p>0.694</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.908" calcext:value-type="float">
+            <text:p>0.908</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.918" calcext:value-type="float">
+            <text:p>0.918</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.866" calcext:value-type="float">
+            <text:p>0.866</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.602" calcext:value-type="float">
+            <text:p>0.602</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Precision</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.955" calcext:value-type="float">
+            <text:p>0.955</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.947" calcext:value-type="float">
             <text:p>0.947</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.920</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.679</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Accuracy</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.917</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.907</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.723</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.682</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell office:value-type="float" office:value="0.84" calcext:value-type="float">
+            <text:p>0.84</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.793" calcext:value-type="float">
+            <text:p>0.793</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.932" calcext:value-type="float">
+            <text:p>0.932</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.962" calcext:value-type="float">
+            <text:p>0.962</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.936" calcext:value-type="float">
+            <text:p>0.936</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.48" calcext:value-type="float">
+            <text:p>0.48</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Sensitivity</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.873" calcext:value-type="float">
+            <text:p>0.873</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.855" calcext:value-type="float">
+            <text:p>0.855</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.56" calcext:value-type="float">
+            <text:p>0.56</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.488" calcext:value-type="float">
+            <text:p>0.488</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.86" calcext:value-type="float">
+            <text:p>0.86</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.858" calcext:value-type="float">
+            <text:p>0.858</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.79" calcext:value-type="float">
+            <text:p>0.79</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.259" calcext:value-type="float">
+            <text:p>0.259</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Specificity</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.975" calcext:value-type="float">
+            <text:p>0.975</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.971" calcext:value-type="float">
+            <text:p>0.971</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.912" calcext:value-type="float">
+            <text:p>0.912</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.898" calcext:value-type="float">
+            <text:p>0.898</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.933" calcext:value-type="float">
             <text:p>0.933</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.939</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.864</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.647</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Precision</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.948</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.935</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.828</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.768</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.946</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.964</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.929</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.409</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Sensitivity</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.889</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.875</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.583</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.501</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.906</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.912</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.822</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.272</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Specificity</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.978</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.975</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.917</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.900</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.961</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.982</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.964</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.854</text:p>
+          <table:table-cell office:value-type="float" office:value="0.972" calcext:value-type="float">
+            <text:p>0.972</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.958" calcext:value-type="float">
+            <text:p>0.958</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.852" calcext:value-type="float">
+            <text:p>0.852</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -3969,8 +3975,8 @@
             <text:p>Peptides of length 9:</text:p>
           </table:table-cell>
           <table:covered-table-cell/>
-          <table:table-cell table:formula="of:=SUM([.B25:.B30])" office:value-type="float" office:value="8830" calcext:value-type="float">
-            <text:p>8830</text:p>
+          <table:table-cell table:formula="of:=SUM([.B25:.B30])" office:value-type="float" office:value="10447" calcext:value-type="float">
+            <text:p>10447</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -3981,8 +3987,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*01:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1714" calcext:value-type="float">
-            <text:p>1714</text:p>
+          <table:table-cell office:value-type="float" office:value="1750" calcext:value-type="float">
+            <text:p>1750</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -3993,8 +3999,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*68:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="890" calcext:value-type="float">
-            <text:p>890</text:p>
+          <table:table-cell office:value-type="float" office:value="997" calcext:value-type="float">
+            <text:p>997</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -4005,8 +4011,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*18:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="619" calcext:value-type="float">
-            <text:p>619</text:p>
+          <table:table-cell office:value-type="float" office:value="853" calcext:value-type="float">
+            <text:p>853</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -4017,8 +4023,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*57:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="3197" calcext:value-type="float">
-            <text:p>3197</text:p>
+          <table:table-cell office:value-type="float" office:value="3238" calcext:value-type="float">
+            <text:p>3238</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -4029,8 +4035,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*05:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1540" calcext:value-type="float">
-            <text:p>1540</text:p>
+          <table:table-cell office:value-type="float" office:value="1906" calcext:value-type="float">
+            <text:p>1906</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -4041,8 +4047,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*06:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="870" calcext:value-type="float">
-            <text:p>870</text:p>
+          <table:table-cell office:value-type="float" office:value="1703" calcext:value-type="float">
+            <text:p>1703</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -4057,8 +4063,8 @@
             <text:p>Peptides of length 8-11:</text:p>
           </table:table-cell>
           <table:covered-table-cell/>
-          <table:table-cell table:formula="of:=SUM([.B33:.B38])" office:value-type="float" office:value="19216" calcext:value-type="float">
-            <text:p>19216</text:p>
+          <table:table-cell table:formula="of:=SUM([.B33:.B38])" office:value-type="float" office:value="22084" calcext:value-type="float">
+            <text:p>22084</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -4069,8 +4075,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*01:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="4244" calcext:value-type="float">
-            <text:p>4244</text:p>
+          <table:table-cell office:value-type="float" office:value="4310" calcext:value-type="float">
+            <text:p>4310</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -4081,8 +4087,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*68:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1482" calcext:value-type="float">
-            <text:p>1482</text:p>
+          <table:table-cell office:value-type="float" office:value="1763" calcext:value-type="float">
+            <text:p>1763</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -4093,8 +4099,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*18:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1224" calcext:value-type="float">
-            <text:p>1224</text:p>
+          <table:table-cell office:value-type="float" office:value="1973" calcext:value-type="float">
+            <text:p>1973</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -4105,8 +4111,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*57:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="8847" calcext:value-type="float">
-            <text:p>8847</text:p>
+          <table:table-cell office:value-type="float" office:value="8919" calcext:value-type="float">
+            <text:p>8919</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -4117,8 +4123,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*05:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="2466" calcext:value-type="float">
-            <text:p>2466</text:p>
+          <table:table-cell office:value-type="float" office:value="3106" calcext:value-type="float">
+            <text:p>3106</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -4129,8 +4135,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*06:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="953" calcext:value-type="float">
-            <text:p>953</text:p>
+          <table:table-cell office:value-type="float" office:value="2013" calcext:value-type="float">
+            <text:p>2013</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -4196,59 +4202,59 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>AUC</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.996</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.995</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.819</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.747</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.990</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.97" calcext:value-type="float">
+            <text:p>0.97</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.966" calcext:value-type="float">
+            <text:p>0.966</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.751" calcext:value-type="float">
+            <text:p>0.751</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.71" calcext:value-type="float">
+            <text:p>0.71</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.961" calcext:value-type="float">
+            <text:p>0.961</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.954" calcext:value-type="float">
+            <text:p>0.954</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.958" calcext:value-type="float">
+            <text:p>0.958</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.617" calcext:value-type="float">
+            <text:p>0.617</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Accuracy</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.969" calcext:value-type="float">
+            <text:p>0.969</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.965" calcext:value-type="float">
             <text:p>0.965</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell office:value-type="float" office:value="0.775" calcext:value-type="float">
+            <text:p>0.775</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.744" calcext:value-type="float">
+            <text:p>0.744</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.962" calcext:value-type="float">
+            <text:p>0.962</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.954" calcext:value-type="float">
+            <text:p>0.954</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.959" calcext:value-type="float">
             <text:p>0.959</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.677</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Accuracy</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.968</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.965</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.753</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.716</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.965</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.960</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.952</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.672</text:p>
+          <table:table-cell office:value-type="float" office:value="0.658" calcext:value-type="float">
+            <text:p>0.658</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -4256,89 +4262,89 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Precision</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.986" calcext:value-type="float">
+            <text:p>0.986</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.983" calcext:value-type="float">
+            <text:p>0.983</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.884" calcext:value-type="float">
+            <text:p>0.884</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.828" calcext:value-type="float">
+            <text:p>0.828</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.977" calcext:value-type="float">
+            <text:p>0.977</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.981" calcext:value-type="float">
+            <text:p>0.981</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.983" calcext:value-type="float">
+            <text:p>0.983</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.411" calcext:value-type="float">
+            <text:p>0.411</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Sensitivity</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.95" calcext:value-type="float">
+            <text:p>0.95</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.944" calcext:value-type="float">
+            <text:p>0.944</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.585" calcext:value-type="float">
+            <text:p>0.585</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.516" calcext:value-type="float">
+            <text:p>0.516</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.941" calcext:value-type="float">
+            <text:p>0.941</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.924" calcext:value-type="float">
+            <text:p>0.924</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.929" calcext:value-type="float">
+            <text:p>0.929</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.362" calcext:value-type="float">
+            <text:p>0.362</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Specificity</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.99" calcext:value-type="float">
+            <text:p>0.99</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.989" calcext:value-type="float">
+            <text:p>0.989</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.917" calcext:value-type="float">
+            <text:p>0.917</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.903" calcext:value-type="float">
+            <text:p>0.903</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.981" calcext:value-type="float">
+            <text:p>0.981</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.985" calcext:value-type="float">
             <text:p>0.985</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.981</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.883</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.685</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.976</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.979</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.978</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.410</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Sensitivity</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.953</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.945</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.567</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.485</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.949</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.942</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.923</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.345</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Specificity</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.991</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.989</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.913</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.897</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.985</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.988</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.985</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.869</text:p>
+          <table:table-cell office:value-type="float" office:value="0.986" calcext:value-type="float">
+            <text:p>0.986</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.872" calcext:value-type="float">
+            <text:p>0.872</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -4388,149 +4394,149 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>AUC</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.984</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.996" calcext:value-type="float">
+            <text:p>0.996</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.995" calcext:value-type="float">
+            <text:p>0.995</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.864" calcext:value-type="float">
+            <text:p>0.864</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.82" calcext:value-type="float">
+            <text:p>0.82</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.989" calcext:value-type="float">
+            <text:p>0.989</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.954" calcext:value-type="float">
+            <text:p>0.954</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.956" calcext:value-type="float">
+            <text:p>0.956</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.718" calcext:value-type="float">
+            <text:p>0.718</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Accuracy</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.946" calcext:value-type="float">
+            <text:p>0.946</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.939" calcext:value-type="float">
+            <text:p>0.939</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.755" calcext:value-type="float">
+            <text:p>0.755</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.721" calcext:value-type="float">
+            <text:p>0.721</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.941" calcext:value-type="float">
+            <text:p>0.941</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.945" calcext:value-type="float">
+            <text:p>0.945</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.915" calcext:value-type="float">
+            <text:p>0.915</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.646" calcext:value-type="float">
+            <text:p>0.646</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Precision</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.976" calcext:value-type="float">
+            <text:p>0.976</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.972" calcext:value-type="float">
+            <text:p>0.972</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.856" calcext:value-type="float">
+            <text:p>0.856</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.8" calcext:value-type="float">
+            <text:p>0.8</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.957" calcext:value-type="float">
+            <text:p>0.957</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.977" calcext:value-type="float">
+            <text:p>0.977</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.967" calcext:value-type="float">
+            <text:p>0.967</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.508" calcext:value-type="float">
+            <text:p>0.508</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Sensitivity</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.909" calcext:value-type="float">
+            <text:p>0.909</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.896" calcext:value-type="float">
+            <text:p>0.896</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.56" calcext:value-type="float">
+            <text:p>0.56</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.489" calcext:value-type="float">
+            <text:p>0.489</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.913" calcext:value-type="float">
+            <text:p>0.913</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.904" calcext:value-type="float">
+            <text:p>0.904</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.847" calcext:value-type="float">
+            <text:p>0.847</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.36" calcext:value-type="float">
+            <text:p>0.36</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Specificity</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.982" calcext:value-type="float">
+            <text:p>0.982</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.979" calcext:value-type="float">
             <text:p>0.979</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.868</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.815</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.988</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.963</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.945</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.696</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Accuracy</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.947</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.940</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.741</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.704</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.953</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.955</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.919</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.643</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Precision</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.972</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.962</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.847</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.791</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.956</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.973</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.959</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.374</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Sensitivity</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.924</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.913</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.592</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.515</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.936</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.939</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.877</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.295</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Specificity</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.985</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.983</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.918</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.903</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.976</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.988</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.975</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.859</text:p>
+          <table:table-cell office:value-type="float" office:value="0.912" calcext:value-type="float">
+            <text:p>0.912</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.898" calcext:value-type="float">
+            <text:p>0.898</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.96" calcext:value-type="float">
+            <text:p>0.96</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.981" calcext:value-type="float">
+            <text:p>0.981</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.969" calcext:value-type="float">
+            <text:p>0.969</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.872" calcext:value-type="float">
+            <text:p>0.872</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -4555,8 +4561,8 @@
             <text:p>Peptides of length 9:</text:p>
           </table:table-cell>
           <table:covered-table-cell/>
-          <table:table-cell table:formula="of:=SUM([.B25:.B30])" office:value-type="float" office:value="10921" calcext:value-type="float">
-            <text:p>10921</text:p>
+          <table:table-cell table:formula="of:=SUM([.B25:.B30])" office:value-type="float" office:value="12902" calcext:value-type="float">
+            <text:p>12902</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -4567,8 +4573,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*02:04</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1404" calcext:value-type="float">
-            <text:p>1404</text:p>
+          <table:table-cell office:value-type="float" office:value="1747" calcext:value-type="float">
+            <text:p>1747</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -4579,8 +4585,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*29:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="3944" calcext:value-type="float">
-            <text:p>3944</text:p>
+          <table:table-cell office:value-type="float" office:value="4011" calcext:value-type="float">
+            <text:p>4011</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -4591,8 +4597,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*45:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="509" calcext:value-type="float">
-            <text:p>509</text:p>
+          <table:table-cell office:value-type="float" office:value="1117" calcext:value-type="float">
+            <text:p>1117</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -4603,8 +4609,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*58:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1968" calcext:value-type="float">
-            <text:p>1968</text:p>
+          <table:table-cell office:value-type="float" office:value="1116" calcext:value-type="float">
+            <text:p>1116</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -4615,8 +4621,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*06:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="868" calcext:value-type="float">
-            <text:p>868</text:p>
+          <table:table-cell office:value-type="float" office:value="1706" calcext:value-type="float">
+            <text:p>1706</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -4627,8 +4633,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*08:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="2228" calcext:value-type="float">
-            <text:p>2228</text:p>
+          <table:table-cell office:value-type="float" office:value="3205" calcext:value-type="float">
+            <text:p>3205</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -4643,8 +4649,8 @@
             <text:p>Peptides of length 8-11:</text:p>
           </table:table-cell>
           <table:covered-table-cell/>
-          <table:table-cell table:formula="of:=SUM([.B33:.B38])" office:value-type="float" office:value="16232" calcext:value-type="float">
-            <text:p>16232</text:p>
+          <table:table-cell table:formula="of:=SUM([.B33:.B38])" office:value-type="float" office:value="18286" calcext:value-type="float">
+            <text:p>18286</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -4655,8 +4661,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*02:04</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1743" calcext:value-type="float">
-            <text:p>1743</text:p>
+          <table:table-cell office:value-type="float" office:value="2155" calcext:value-type="float">
+            <text:p>2155</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -4667,8 +4673,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*29:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="5452" calcext:value-type="float">
-            <text:p>5452</text:p>
+          <table:table-cell office:value-type="float" office:value="5561" calcext:value-type="float">
+            <text:p>5561</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -4679,8 +4685,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*45:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="670" calcext:value-type="float">
-            <text:p>670</text:p>
+          <table:table-cell office:value-type="float" office:value="1534" calcext:value-type="float">
+            <text:p>1534</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -4691,8 +4697,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*58:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="3956" calcext:value-type="float">
-            <text:p>3956</text:p>
+          <table:table-cell office:value-type="float" office:value="1943" calcext:value-type="float">
+            <text:p>1943</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -4703,8 +4709,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*06:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="951" calcext:value-type="float">
-            <text:p>951</text:p>
+          <table:table-cell office:value-type="float" office:value="2049" calcext:value-type="float">
+            <text:p>2049</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -4715,8 +4721,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*08:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="3460" calcext:value-type="float">
-            <text:p>3460</text:p>
+          <table:table-cell office:value-type="float" office:value="5044" calcext:value-type="float">
+            <text:p>5044</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -4782,148 +4788,148 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>AUC</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.994</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.992</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.827</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.765</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.992</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.993" calcext:value-type="float">
+            <text:p>0.993</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.991" calcext:value-type="float">
+            <text:p>0.991</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.794" calcext:value-type="float">
+            <text:p>0.794</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.734" calcext:value-type="float">
+            <text:p>0.734</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.942" calcext:value-type="float">
+            <text:p>0.942</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.921" calcext:value-type="float">
+            <text:p>0.921</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.928" calcext:value-type="float">
+            <text:p>0.928</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.665" calcext:value-type="float">
+            <text:p>0.665</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Accuracy</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.956" calcext:value-type="float">
+            <text:p>0.956</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.951" calcext:value-type="float">
+            <text:p>0.951</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.704" calcext:value-type="float">
+            <text:p>0.704</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.668" calcext:value-type="float">
+            <text:p>0.668</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.904" calcext:value-type="float">
+            <text:p>0.904</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.915" calcext:value-type="float">
+            <text:p>0.915</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.939" calcext:value-type="float">
+            <text:p>0.939</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.633" calcext:value-type="float">
+            <text:p>0.633</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Precision</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.982" calcext:value-type="float">
+            <text:p>0.982</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.979" calcext:value-type="float">
+            <text:p>0.979</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.826" calcext:value-type="float">
+            <text:p>0.826</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.748" calcext:value-type="float">
+            <text:p>0.748</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.808" calcext:value-type="float">
+            <text:p>0.808</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.963" calcext:value-type="float">
+            <text:p>0.963</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.979" calcext:value-type="float">
+            <text:p>0.979</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.385" calcext:value-type="float">
+            <text:p>0.385</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Sensitivity</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.926" calcext:value-type="float">
             <text:p>0.926</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.932</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.680</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Accuracy</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.915" calcext:value-type="float">
+            <text:p>0.915</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.48" calcext:value-type="float">
+            <text:p>0.48</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.407" calcext:value-type="float">
+            <text:p>0.407</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.785" calcext:value-type="float">
+            <text:p>0.785</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.869" calcext:value-type="float">
+            <text:p>0.869</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.891" calcext:value-type="float">
+            <text:p>0.891</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.326" calcext:value-type="float">
+            <text:p>0.326</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Specificity</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.985" calcext:value-type="float">
+            <text:p>0.985</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.983" calcext:value-type="float">
+            <text:p>0.983</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.896" calcext:value-type="float">
+            <text:p>0.896</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.881" calcext:value-type="float">
+            <text:p>0.881</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.955" calcext:value-type="float">
             <text:p>0.955</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.950</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.736</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.701</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.959</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.917</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.940</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.647</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Precision</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.980</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.975</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.841</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.781</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.982</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.960</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell office:value-type="float" office:value="0.974" calcext:value-type="float">
+            <text:p>0.974</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.978" calcext:value-type="float">
             <text:p>0.978</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.396</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Sensitivity</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.925</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.914</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.536</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.456</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.928</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.877</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.895</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.327</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Specificity</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.985</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.983</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.907</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.891</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.984</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.975</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.979</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell office:value-type="float" office:value="0.865" calcext:value-type="float">
             <text:p>0.865</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
@@ -4974,29 +4980,29 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>AUC</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.971</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.960</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.825</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.746</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.986</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.916</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.854</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.664</text:p>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.973" calcext:value-type="float">
+            <text:p>0.973</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.965" calcext:value-type="float">
+            <text:p>0.965</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.792" calcext:value-type="float">
+            <text:p>0.792</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.726" calcext:value-type="float">
+            <text:p>0.726</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.935" calcext:value-type="float">
+            <text:p>0.935</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.904" calcext:value-type="float">
+            <text:p>0.904</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.89" calcext:value-type="float">
+            <text:p>0.89</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.654" calcext:value-type="float">
+            <text:p>0.654</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -5004,29 +5010,29 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Accuracy</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.922</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.911</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.728</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.689</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.947</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.914</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.848</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.627</text:p>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.928" calcext:value-type="float">
+            <text:p>0.928</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.919" calcext:value-type="float">
+            <text:p>0.919</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.711" calcext:value-type="float">
+            <text:p>0.711</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.674" calcext:value-type="float">
+            <text:p>0.674</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.897" calcext:value-type="float">
+            <text:p>0.897</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.909" calcext:value-type="float">
+            <text:p>0.909</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.884" calcext:value-type="float">
+            <text:p>0.884</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.616" calcext:value-type="float">
+            <text:p>0.616</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -5034,88 +5040,88 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Precision</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.967" calcext:value-type="float">
+            <text:p>0.967</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.961" calcext:value-type="float">
+            <text:p>0.961</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.821" calcext:value-type="float">
+            <text:p>0.821</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.74" calcext:value-type="float">
+            <text:p>0.74</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.802" calcext:value-type="float">
+            <text:p>0.802</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.96" calcext:value-type="float">
+            <text:p>0.96</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.952" calcext:value-type="float">
+            <text:p>0.952</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.368" calcext:value-type="float">
+            <text:p>0.368</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Sensitivity</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.878" calcext:value-type="float">
+            <text:p>0.878</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.86" calcext:value-type="float">
+            <text:p>0.86</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.486" calcext:value-type="float">
+            <text:p>0.486</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.406" calcext:value-type="float">
+            <text:p>0.406</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.769" calcext:value-type="float">
+            <text:p>0.769</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.841" calcext:value-type="float">
+            <text:p>0.841</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.792" calcext:value-type="float">
+            <text:p>0.792</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.304" calcext:value-type="float">
+            <text:p>0.304</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Specificity</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.976" calcext:value-type="float">
+            <text:p>0.976</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.972" calcext:value-type="float">
+            <text:p>0.972</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.897" calcext:value-type="float">
+            <text:p>0.897</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.881" calcext:value-type="float">
+            <text:p>0.881</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.941" calcext:value-type="float">
+            <text:p>0.941</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.968" calcext:value-type="float">
+            <text:p>0.968</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.958" calcext:value-type="float">
             <text:p>0.958</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.945</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.831</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.755</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.970</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.957</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.785</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.373</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Sensitivity</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.873</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.849</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.535</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.435</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.909</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.859</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.655</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.303</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Specificity</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.975</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.970</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.907</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.887</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.974</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.972</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.931</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell office:value-type="float" office:value="0.861" calcext:value-type="float">
             <text:p>0.861</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
@@ -5143,8 +5149,8 @@
             <text:p>Peptides of length 9:</text:p>
           </table:table-cell>
           <table:covered-table-cell/>
-          <table:table-cell table:formula="of:=SUM([.B25:.B30])" office:value-type="float" office:value="6681" calcext:value-type="float">
-            <text:p>6681</text:p>
+          <table:table-cell table:formula="of:=SUM([.B25:.B30])" office:value-type="float" office:value="8454" calcext:value-type="float">
+            <text:p>8454</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -5155,8 +5161,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*01:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1700" calcext:value-type="float">
-            <text:p>1700</text:p>
+          <table:table-cell office:value-type="float" office:value="1739" calcext:value-type="float">
+            <text:p>1739</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -5167,8 +5173,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*32:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="411" calcext:value-type="float">
-            <text:p>411</text:p>
+          <table:table-cell office:value-type="float" office:value="1223" calcext:value-type="float">
+            <text:p>1223</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -5179,8 +5185,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*27:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1299" calcext:value-type="float">
-            <text:p>1299</text:p>
+          <table:table-cell office:value-type="float" office:value="1300" calcext:value-type="float">
+            <text:p>1300</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -5191,8 +5197,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*35:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="653" calcext:value-type="float">
-            <text:p>653</text:p>
+          <table:table-cell office:value-type="float" office:value="702" calcext:value-type="float">
+            <text:p>702</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -5203,8 +5209,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*02:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1453" calcext:value-type="float">
-            <text:p>1453</text:p>
+          <table:table-cell office:value-type="float" office:value="1723" calcext:value-type="float">
+            <text:p>1723</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -5215,8 +5221,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*04:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1165" calcext:value-type="float">
-            <text:p>1165</text:p>
+          <table:table-cell office:value-type="float" office:value="1767" calcext:value-type="float">
+            <text:p>1767</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -5231,8 +5237,8 @@
             <text:p>Peptides of length 8-11:</text:p>
           </table:table-cell>
           <table:covered-table-cell/>
-          <table:table-cell table:formula="of:=SUM([.B33:.B38])" office:value-type="float" office:value="12317" calcext:value-type="float">
-            <text:p>12317</text:p>
+          <table:table-cell table:formula="of:=SUM([.B33:.B38])" office:value-type="float" office:value="15051" calcext:value-type="float">
+            <text:p>15051</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -5243,8 +5249,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*01:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="4241" calcext:value-type="float">
-            <text:p>4241</text:p>
+          <table:table-cell office:value-type="float" office:value="4304" calcext:value-type="float">
+            <text:p>4304</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -5255,8 +5261,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*32:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="557" calcext:value-type="float">
-            <text:p>557</text:p>
+          <table:table-cell office:value-type="float" office:value="1968" calcext:value-type="float">
+            <text:p>1968</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -5267,8 +5273,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*27:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="2849" calcext:value-type="float">
-            <text:p>2849</text:p>
+          <table:table-cell office:value-type="float" office:value="2847" calcext:value-type="float">
+            <text:p>2847</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -5279,8 +5285,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*35:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1006" calcext:value-type="float">
-            <text:p>1006</text:p>
+          <table:table-cell office:value-type="float" office:value="1007" calcext:value-type="float">
+            <text:p>1007</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -5291,8 +5297,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*02:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1846" calcext:value-type="float">
-            <text:p>1846</text:p>
+          <table:table-cell office:value-type="float" office:value="2242" calcext:value-type="float">
+            <text:p>2242</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -5303,8 +5309,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*04:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1818" calcext:value-type="float">
-            <text:p>1818</text:p>
+          <table:table-cell office:value-type="float" office:value="2683" calcext:value-type="float">
+            <text:p>2683</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -5367,89 +5373,89 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>AUC</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.998</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.997</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.750</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.641</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.997</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.993" calcext:value-type="float">
+            <text:p>0.993</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.99" calcext:value-type="float">
+            <text:p>0.99</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.741" calcext:value-type="float">
+            <text:p>0.741</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.659" calcext:value-type="float">
+            <text:p>0.659</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.99" calcext:value-type="float">
+            <text:p>0.99</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.931" calcext:value-type="float">
+            <text:p>0.931</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.941" calcext:value-type="float">
+            <text:p>0.941</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.579" calcext:value-type="float">
+            <text:p>0.579</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Accuracy</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.958" calcext:value-type="float">
+            <text:p>0.958</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.952" calcext:value-type="float">
             <text:p>0.952</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell office:value-type="float" office:value="0.622" calcext:value-type="float">
+            <text:p>0.622</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.572" calcext:value-type="float">
+            <text:p>0.572</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.962" calcext:value-type="float">
             <text:p>0.962</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.570</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Accuracy</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.979</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell office:value-type="float" office:value="0.936" calcext:value-type="float">
+            <text:p>0.936</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.954" calcext:value-type="float">
+            <text:p>0.954</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.587" calcext:value-type="float">
+            <text:p>0.587</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Precision</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.98" calcext:value-type="float">
+            <text:p>0.98</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.976" calcext:value-type="float">
             <text:p>0.976</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.618</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.560</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.979</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.953</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.975</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.601</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Precision</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.990</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.987</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.751</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.501</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.987</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell office:value-type="float" office:value="0.748" calcext:value-type="float">
+            <text:p>0.748</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.627" calcext:value-type="float">
+            <text:p>0.627</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.981" calcext:value-type="float">
+            <text:p>0.981</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.972" calcext:value-type="float">
             <text:p>0.972</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.987</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.134</text:p>
+          <table:table-cell office:value-type="float" office:value="0.982" calcext:value-type="float">
+            <text:p>0.982</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.127" calcext:value-type="float">
+            <text:p>0.127</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
@@ -5457,28 +5463,28 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Sensitivity</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.963</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.953</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.411</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.301</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.964</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.920</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.954</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.928" calcext:value-type="float">
+            <text:p>0.928</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.916" calcext:value-type="float">
+            <text:p>0.916</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.383" calcext:value-type="float">
+            <text:p>0.383</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.293" calcext:value-type="float">
+            <text:p>0.293</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.934" calcext:value-type="float">
+            <text:p>0.934</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.885" calcext:value-type="float">
+            <text:p>0.885</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.918" calcext:value-type="float">
+            <text:p>0.918</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.167" calcext:value-type="float">
             <text:p>0.167</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
@@ -5487,28 +5493,28 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Specificity</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.993</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.991</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.882</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.860</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.991</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.986" calcext:value-type="float">
+            <text:p>0.986</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.983" calcext:value-type="float">
+            <text:p>0.983</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.877" calcext:value-type="float">
+            <text:p>0.877</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.859" calcext:value-type="float">
+            <text:p>0.859</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.984" calcext:value-type="float">
             <text:p>0.984</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.991</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell office:value-type="float" office:value="0.977" calcext:value-type="float">
+            <text:p>0.977</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.984" calcext:value-type="float">
+            <text:p>0.984</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.833" calcext:value-type="float">
             <text:p>0.833</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
@@ -5559,148 +5565,148 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>AUC</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.985</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.98" calcext:value-type="float">
+            <text:p>0.98</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.973" calcext:value-type="float">
+            <text:p>0.973</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.759" calcext:value-type="float">
+            <text:p>0.759</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.677" calcext:value-type="float">
+            <text:p>0.677</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.973" calcext:value-type="float">
+            <text:p>0.973</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.909" calcext:value-type="float">
+            <text:p>0.909</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.902" calcext:value-type="float">
+            <text:p>0.902</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.589" calcext:value-type="float">
+            <text:p>0.589</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Accuracy</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.943" calcext:value-type="float">
+            <text:p>0.943</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.936" calcext:value-type="float">
+            <text:p>0.936</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.636" calcext:value-type="float">
+            <text:p>0.636</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.587" calcext:value-type="float">
+            <text:p>0.587</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.935" calcext:value-type="float">
+            <text:p>0.935</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.921" calcext:value-type="float">
+            <text:p>0.921</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.902" calcext:value-type="float">
+            <text:p>0.902</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.589" calcext:value-type="float">
+            <text:p>0.589</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Precision</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.972" calcext:value-type="float">
+            <text:p>0.972</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.966" calcext:value-type="float">
+            <text:p>0.966</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.755" calcext:value-type="float">
+            <text:p>0.755</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.657" calcext:value-type="float">
+            <text:p>0.657</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.962" calcext:value-type="float">
+            <text:p>0.962</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.965" calcext:value-type="float">
+            <text:p>0.965</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.96" calcext:value-type="float">
+            <text:p>0.96</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.128" calcext:value-type="float">
+            <text:p>0.128</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Sensitivity</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.909" calcext:value-type="float">
+            <text:p>0.909</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.894" calcext:value-type="float">
+            <text:p>0.894</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.417" calcext:value-type="float">
+            <text:p>0.417</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.33" calcext:value-type="float">
+            <text:p>0.33</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.887" calcext:value-type="float">
+            <text:p>0.887</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.849" calcext:value-type="float">
+            <text:p>0.849</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.825" calcext:value-type="float">
+            <text:p>0.825</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.167" calcext:value-type="float">
+            <text:p>0.167</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Specificity</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.982" calcext:value-type="float">
+            <text:p>0.982</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="0.979" calcext:value-type="float">
             <text:p>0.979</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.791</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.682</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.988</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.935</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.926</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.591</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Accuracy</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.951</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.944</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.633</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.575</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.959</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.942</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.921</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.603</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Precision</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.969</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.954</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.728</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.626</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.969</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell office:value-type="float" office:value="0.883" calcext:value-type="float">
+            <text:p>0.883</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.866" calcext:value-type="float">
+            <text:p>0.866</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.965" calcext:value-type="float">
             <text:p>0.965</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.967</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.135</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Sensitivity</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.929</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.915</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.446</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.326</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.928</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.892</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.860</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.167</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Specificity</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.986</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>0.983</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.889</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.865</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.979</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.978</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>0.972</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell office:value-type="float" office:value="0.97" calcext:value-type="float">
+            <text:p>0.97</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.965" calcext:value-type="float">
+            <text:p>0.965</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.833" calcext:value-type="float">
             <text:p>0.833</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
@@ -5726,8 +5732,8 @@
             <text:p>Peptides of length 9:</text:p>
           </table:table-cell>
           <table:covered-table-cell/>
-          <table:table-cell table:formula="of:=SUM([.B25:.B30])" office:value-type="float" office:value="7609" calcext:value-type="float">
-            <text:p>7609</text:p>
+          <table:table-cell table:formula="of:=SUM([.B25:.B30])" office:value-type="float" office:value="9546" calcext:value-type="float">
+            <text:p>9546</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -5738,8 +5744,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*02:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="3318" calcext:value-type="float">
-            <text:p>3318</text:p>
+          <table:table-cell office:value-type="float" office:value="3691" calcext:value-type="float">
+            <text:p>3691</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -5750,8 +5756,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*03:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1354" calcext:value-type="float">
-            <text:p>1354</text:p>
+          <table:table-cell office:value-type="float" office:value="1491" calcext:value-type="float">
+            <text:p>1491</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -5762,8 +5768,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*08:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="511" calcext:value-type="float">
-            <text:p>511</text:p>
+          <table:table-cell office:value-type="float" office:value="889" calcext:value-type="float">
+            <text:p>889</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -5774,8 +5780,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*51:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1156" calcext:value-type="float">
-            <text:p>1156</text:p>
+          <table:table-cell office:value-type="float" office:value="1322" calcext:value-type="float">
+            <text:p>1322</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -5786,8 +5792,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*01:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="966" calcext:value-type="float">
-            <text:p>966</text:p>
+          <table:table-cell office:value-type="float" office:value="1416" calcext:value-type="float">
+            <text:p>1416</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -5798,8 +5804,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*07:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="304" calcext:value-type="float">
-            <text:p>304</text:p>
+          <table:table-cell office:value-type="float" office:value="737" calcext:value-type="float">
+            <text:p>737</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -5814,8 +5820,8 @@
             <text:p>Peptides of length 8-11:</text:p>
           </table:table-cell>
           <table:covered-table-cell/>
-          <table:table-cell table:formula="of:=SUM([.B33:.B38])" office:value-type="float" office:value="12621" calcext:value-type="float">
-            <text:p>12621</text:p>
+          <table:table-cell table:formula="of:=SUM([.B33:.B38])" office:value-type="float" office:value="15734" calcext:value-type="float">
+            <text:p>15734</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -5826,8 +5832,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*02:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="5569" calcext:value-type="float">
-            <text:p>5569</text:p>
+          <table:table-cell office:value-type="float" office:value="6127" calcext:value-type="float">
+            <text:p>6127</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -5838,8 +5844,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-A*03:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="2466" calcext:value-type="float">
-            <text:p>2466</text:p>
+          <table:table-cell office:value-type="float" office:value="2745" calcext:value-type="float">
+            <text:p>2745</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -5850,8 +5856,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*08:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="823" calcext:value-type="float">
-            <text:p>823</text:p>
+          <table:table-cell office:value-type="float" office:value="1407" calcext:value-type="float">
+            <text:p>1407</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -5862,8 +5868,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-B*51:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="2041" calcext:value-type="float">
-            <text:p>2041</text:p>
+          <table:table-cell office:value-type="float" office:value="2393" calcext:value-type="float">
+            <text:p>2393</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -5874,8 +5880,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*01:02</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1337" calcext:value-type="float">
-            <text:p>1337</text:p>
+          <table:table-cell office:value-type="float" office:value="2054" calcext:value-type="float">
+            <text:p>2054</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -5886,8 +5892,8 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>HLA-C*07:01</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="385" calcext:value-type="float">
-            <text:p>385</text:p>
+          <table:table-cell office:value-type="float" office:value="1008" calcext:value-type="float">
+            <text:p>1008</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>sequences</text:p>
@@ -5905,9 +5911,9 @@
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
     <meta:creation-date>2020-01-29T09:19:20.903786479</meta:creation-date>
-    <dc:date>2020-04-22T19:49:55.010976237</dc:date>
-    <meta:editing-duration>PT3H45M11S</meta:editing-duration>
-    <meta:editing-cycles>184</meta:editing-cycles>
+    <dc:date>2020-08-02T17:27:20.651497381</dc:date>
+    <meta:editing-duration>PT4H43M11S</meta:editing-duration>
+    <meta:editing-cycles>240</meta:editing-cycles>
     <meta:generator>LibreOffice/6.0.7.3$Linux_X86_64 LibreOffice_project/00m0$Build-3</meta:generator>
     <meta:document-statistic meta:table-count="10" meta:cell-count="1520" meta:object-count="0"/>
   </office:meta>
@@ -5927,8 +5933,44 @@
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Haplotype 1">
-              <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">20</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">1</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">5</config:config-item>
+              <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
+              <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
+              <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
+              <config:config-item config:name="VerticalSplitPosition" config:type="int">0</config:config-item>
+              <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
+              <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">3</config:config-item>
+              <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">131</config:config-item>
+              <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
+              <config:config-item config:name="ShowGrid" config:type="boolean">true</config:config-item>
+              <config:config-item config:name="AnchoredTextOverflowLegacy" config:type="boolean">false</config:config-item>
+            </config:config-item-map-entry>
+            <config:config-item-map-entry config:name="Haplotype 10">
+              <config:config-item config:name="CursorPositionX" config:type="int">1</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">5</config:config-item>
+              <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
+              <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
+              <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
+              <config:config-item config:name="VerticalSplitPosition" config:type="int">0</config:config-item>
+              <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
+              <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">4</config:config-item>
+              <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">131</config:config-item>
+              <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
+              <config:config-item config:name="ShowGrid" config:type="boolean">true</config:config-item>
+              <config:config-item config:name="AnchoredTextOverflowLegacy" config:type="boolean">false</config:config-item>
+            </config:config-item-map-entry>
+            <config:config-item-map-entry config:name="Haplotype 2">
+              <config:config-item config:name="CursorPositionX" config:type="int">1</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">5</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -5939,14 +5981,14 @@
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">124</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">131</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
               <config:config-item config:name="ShowGrid" config:type="boolean">true</config:config-item>
               <config:config-item config:name="AnchoredTextOverflowLegacy" config:type="boolean">false</config:config-item>
             </config:config-item-map-entry>
-            <config:config-item-map-entry config:name="Haplotype 10">
+            <config:config-item-map-entry config:name="Haplotype 3">
               <config:config-item config:name="CursorPositionX" config:type="int">1</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">38</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">5</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -5957,14 +5999,32 @@
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">124</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">131</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
               <config:config-item config:name="ShowGrid" config:type="boolean">true</config:config-item>
               <config:config-item config:name="AnchoredTextOverflowLegacy" config:type="boolean">false</config:config-item>
             </config:config-item-map-entry>
-            <config:config-item-map-entry config:name="Haplotype 2">
-              <config:config-item config:name="CursorPositionX" config:type="int">3</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">38</config:config-item>
+            <config:config-item-map-entry config:name="Haplotype 4">
+              <config:config-item config:name="CursorPositionX" config:type="int">1</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">5</config:config-item>
+              <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
+              <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
+              <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
+              <config:config-item config:name="VerticalSplitPosition" config:type="int">0</config:config-item>
+              <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
+              <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">3</config:config-item>
+              <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">131</config:config-item>
+              <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
+              <config:config-item config:name="ShowGrid" config:type="boolean">true</config:config-item>
+              <config:config-item config:name="AnchoredTextOverflowLegacy" config:type="boolean">false</config:config-item>
+            </config:config-item-map-entry>
+            <config:config-item-map-entry config:name="Haplotype 5">
+              <config:config-item config:name="CursorPositionX" config:type="int">1</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">5</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -5975,14 +6035,14 @@
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">124</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">131</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
               <config:config-item config:name="ShowGrid" config:type="boolean">true</config:config-item>
               <config:config-item config:name="AnchoredTextOverflowLegacy" config:type="boolean">false</config:config-item>
             </config:config-item-map-entry>
-            <config:config-item-map-entry config:name="Haplotype 3">
-              <config:config-item config:name="CursorPositionX" config:type="int">3</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">28</config:config-item>
+            <config:config-item-map-entry config:name="Haplotype 6">
+              <config:config-item config:name="CursorPositionX" config:type="int">1</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">5</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -5991,16 +6051,16 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">1</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">124</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">131</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
               <config:config-item config:name="ShowGrid" config:type="boolean">true</config:config-item>
               <config:config-item config:name="AnchoredTextOverflowLegacy" config:type="boolean">false</config:config-item>
             </config:config-item-map-entry>
-            <config:config-item-map-entry config:name="Haplotype 4">
+            <config:config-item-map-entry config:name="Haplotype 7">
               <config:config-item config:name="CursorPositionX" config:type="int">1</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">38</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">5</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -6009,16 +6069,16 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">1</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">124</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">131</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
               <config:config-item config:name="ShowGrid" config:type="boolean">true</config:config-item>
               <config:config-item config:name="AnchoredTextOverflowLegacy" config:type="boolean">false</config:config-item>
             </config:config-item-map-entry>
-            <config:config-item-map-entry config:name="Haplotype 5">
+            <config:config-item-map-entry config:name="Haplotype 8">
               <config:config-item config:name="CursorPositionX" config:type="int">1</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">38</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">14</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -6027,16 +6087,16 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">10</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">124</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">131</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
               <config:config-item config:name="ShowGrid" config:type="boolean">true</config:config-item>
               <config:config-item config:name="AnchoredTextOverflowLegacy" config:type="boolean">false</config:config-item>
             </config:config-item-map-entry>
-            <config:config-item-map-entry config:name="Haplotype 6">
+            <config:config-item-map-entry config:name="Haplotype 9">
               <config:config-item config:name="CursorPositionX" config:type="int">1</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">38</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">5</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -6045,72 +6105,18 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">1</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">124</config:config-item>
-              <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
-              <config:config-item config:name="ShowGrid" config:type="boolean">true</config:config-item>
-              <config:config-item config:name="AnchoredTextOverflowLegacy" config:type="boolean">false</config:config-item>
-            </config:config-item-map-entry>
-            <config:config-item-map-entry config:name="Haplotype 7">
-              <config:config-item config:name="CursorPositionX" config:type="int">1</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">38</config:config-item>
-              <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
-              <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
-              <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
-              <config:config-item config:name="VerticalSplitPosition" config:type="int">0</config:config-item>
-              <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
-              <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
-              <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">124</config:config-item>
-              <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
-              <config:config-item config:name="ShowGrid" config:type="boolean">true</config:config-item>
-              <config:config-item config:name="AnchoredTextOverflowLegacy" config:type="boolean">false</config:config-item>
-            </config:config-item-map-entry>
-            <config:config-item-map-entry config:name="Haplotype 8">
-              <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">20</config:config-item>
-              <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
-              <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
-              <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
-              <config:config-item config:name="VerticalSplitPosition" config:type="int">0</config:config-item>
-              <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
-              <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
-              <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">124</config:config-item>
-              <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
-              <config:config-item config:name="ShowGrid" config:type="boolean">true</config:config-item>
-              <config:config-item config:name="AnchoredTextOverflowLegacy" config:type="boolean">false</config:config-item>
-            </config:config-item-map-entry>
-            <config:config-item-map-entry config:name="Haplotype 9">
-              <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">37</config:config-item>
-              <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
-              <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
-              <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
-              <config:config-item config:name="VerticalSplitPosition" config:type="int">0</config:config-item>
-              <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
-              <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
-              <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">124</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">131</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
               <config:config-item config:name="ShowGrid" config:type="boolean">true</config:config-item>
               <config:config-item config:name="AnchoredTextOverflowLegacy" config:type="boolean">false</config:config-item>
             </config:config-item-map-entry>
           </config:config-item-map-named>
-          <config:config-item config:name="ActiveTable" config:type="string">Haplotype 1</config:config-item>
+          <config:config-item config:name="ActiveTable" config:type="string">Haplotype 10</config:config-item>
           <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1479</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-          <config:config-item config:name="ZoomValue" config:type="int">124</config:config-item>
+          <config:config-item config:name="ZoomValue" config:type="int">131</config:config-item>
           <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
           <config:config-item config:name="ShowPageBreakPreview" config:type="boolean">false</config:config-item>
           <config:config-item config:name="ShowZeroValues" config:type="boolean">true</config:config-item>
@@ -6140,7 +6146,7 @@
       <config:config-item config:name="IsKernAsianPunctuation" config:type="boolean">false</config:config-item>
       <config:config-item config:name="CharacterCompressionType" config:type="short">0</config:config-item>
       <config:config-item config:name="ApplyUserData" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">uQH+/0hQLUNvbG9yLUxhc2VySmV0LU01NTIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQ1VQUzpIUC1Db2xvci1MYXNlckpldC1NNTUyAAAAAAAWAAMA2gAAAAAAAAAIAFZUAAAkbQAASm9iRGF0YSAxCnByaW50ZXI9SFAtQ29sb3ItTGFzZXJKZXQtTTU1MgpvcmllbnRhdGlvbj1Qb3J0cmFpdApjb3BpZXM9MQpjb2xsYXRlPWZhbHNlCm1hcmdpbmRhanVzdG1lbnQ9MCwwLDAsMApjb2xvcmRlcHRoPTI0CnBzbGV2ZWw9MApwZGZkZXZpY2U9MQpjb2xvcmRldmljZT0wClBQRENvbnRleERhdGEKUGFnZVNpemU6TGV0dGVyAElucHV0U2xvdDpBdXRvAER1cGxleDpOb25lAAASAENPTVBBVF9EVVBMRVhfTU9ERQ8ARHVwbGV4TW9kZTo6T2Zm</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">uQH+/0hQLUNvbG9yLUxhc2VySmV0LU01NTIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQ1VQUzpIUC1Db2xvci1MYXNlckpldC1NNTUyAAAAAAAWAAMA2gAAAAAAAAAIAFZUAAAkbQAASm9iRGF0YSAxCnByaW50ZXI9SFAtQ29sb3ItTGFzZXJKZXQtTTU1MgpvcmllbnRhdGlvbj1Qb3J0cmFpdApjb3BpZXM9MQpjb2xsYXRlPWZhbHNlCm1hcmdpbmRhanVzdG1lbnQ9MCwwLDAsMApjb2xvcmRlcHRoPTI0CnBzbGV2ZWw9MApwZGZkZXZpY2U9MQpjb2xvcmRldmljZT0wClBQRENvbnRleERhdGEKRHVwbGV4Ok5vbmUAUGFnZVNpemU6TGV0dGVyAElucHV0U2xvdDpBdXRvAAASAENPTVBBVF9EVVBMRVhfTU9ERQ8ARHVwbGV4TW9kZTo6T2Zm</config:config-item>
       <config:config-item config:name="PrinterName" config:type="string">HP-Color-LaserJet-M552</config:config-item>
       <config:config-item-map-indexed config:name="ForbiddenCharacters">
         <config:config-item-map-entry>
@@ -6288,9 +6294,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2020-04-22">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2020-08-02">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="19:48:17.213228863">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="16:18:25.202536309">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
